--- a/Dokumentation + Diagramme etc/Zeitplan.xlsx
+++ b/Dokumentation + Diagramme etc/Zeitplan.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{A2EDE10C-D961-844F-848E-3E7F4D306051}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Ausgewählter_Zeitraum">Projekt!$R$3</definedName>
+    <definedName name="Ausgewählter_Zeitraum">Projekt!$Z$3</definedName>
     <definedName name="Ist">(ZeitraumInIst*(Projekt!$E1&gt;0))*ZeitraumInPlanenung</definedName>
     <definedName name="IstUnter">ZeitraumInIst*(Projekt!$E1&gt;0)</definedName>
     <definedName name="Planen">ZeitraumInPlanenung*(Projekt!$C1&gt;0)</definedName>
@@ -20,7 +19,7 @@
     <definedName name="ZeitraumInIst">Projekt!A$9=MEDIAN(Projekt!A$9,Projekt!$E1,Projekt!$E1+Projekt!$F1-1)</definedName>
     <definedName name="ZeitraumInPlanenung">Projekt!A$9=MEDIAN(Projekt!A$9,Projekt!$C1,Projekt!$C1+Projekt!$D1-1)</definedName>
   </definedNames>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Geplant</t>
   </si>
@@ -125,60 +124,18 @@
     <t>Ist (über Planenung hinaus)</t>
   </si>
   <si>
-    <t>Mindmap</t>
-  </si>
-  <si>
     <t>Fragekatalog</t>
   </si>
   <si>
-    <t>Papierprototyp</t>
-  </si>
-  <si>
-    <t>Use Case</t>
-  </si>
-  <si>
-    <t>SQL-Diagramm</t>
-  </si>
-  <si>
     <t>Pflichtenheft</t>
   </si>
   <si>
-    <t>Projektstrukturplan</t>
-  </si>
-  <si>
-    <t>Zeitplan</t>
-  </si>
-  <si>
-    <t>Kostenplan</t>
-  </si>
-  <si>
-    <t>Ressourcenplan</t>
-  </si>
-  <si>
-    <t>Verhaltensdiagramme</t>
-  </si>
-  <si>
-    <t>Strukturdiagramme</t>
-  </si>
-  <si>
-    <t>Klassendiagramme</t>
-  </si>
-  <si>
-    <t>ERD</t>
-  </si>
-  <si>
     <t>in h</t>
   </si>
   <si>
     <t>Alle</t>
   </si>
   <si>
-    <t>Willms</t>
-  </si>
-  <si>
-    <t>Heinke</t>
-  </si>
-  <si>
     <t>Gollnick</t>
   </si>
   <si>
@@ -203,9 +160,6 @@
     <t>Doku</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>1.2</t>
   </si>
   <si>
@@ -248,15 +202,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>Projekt LS-EVA</t>
-  </si>
-  <si>
-    <t>Heinke, Lentzen</t>
-  </si>
-  <si>
-    <t>Gede,Kaden</t>
-  </si>
-  <si>
     <t>Abschluss</t>
   </si>
   <si>
@@ -266,15 +211,6 @@
     <t xml:space="preserve">Datenbank </t>
   </si>
   <si>
-    <t>Backend (Server)</t>
-  </si>
-  <si>
-    <t>Frontend (Client)</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
@@ -314,47 +250,32 @@
     <t>2.3.1</t>
   </si>
   <si>
-    <t>Dokumentationserstellung</t>
-  </si>
-  <si>
-    <t>Präsentationserstellen</t>
-  </si>
-  <si>
     <t>1.15</t>
   </si>
   <si>
-    <t>Schnittstellendefinition</t>
-  </si>
-  <si>
     <t>Kaden</t>
   </si>
   <si>
-    <t>Lentzen</t>
-  </si>
-  <si>
-    <t>Lentzen,Gollnick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Tabellen erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Dummy-Einträge erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Basis erstellung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Schnittstellen erstellung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Schnittstellen anbindung</t>
+    <t>Gede, Tenbrock</t>
+  </si>
+  <si>
+    <t>Zeitplanung</t>
+  </si>
+  <si>
+    <t>Gede</t>
+  </si>
+  <si>
+    <t>Protokoll und Beschluss Anwendung</t>
+  </si>
+  <si>
+    <t>WebOberfläche</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -455,11 +376,25 @@
     <font>
       <b/>
       <u/>
-      <sz val="42"/>
+      <sz val="22"/>
       <color theme="7"/>
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -547,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -599,28 +534,6 @@
       <bottom style="thin">
         <color theme="7"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF505050"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF505050"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF505050"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF505050"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -753,7 +666,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,22 +760,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1">
+    <xf numFmtId="3" fontId="9" fillId="9" borderId="7" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="9" borderId="8" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="9" borderId="9" xfId="3" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="9" borderId="10" xfId="3" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="9" borderId="0" xfId="3" applyFill="1" applyBorder="1">
@@ -884,29 +791,71 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="14" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="9" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,109 +863,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="14" borderId="0" xfId="6" applyFont="1" applyFill="1">
+    <xf numFmtId="9" fontId="16" fillId="14" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="14" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="9" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Activity" xfId="2"/>
+    <cellStyle name="Label" xfId="5"/>
+    <cellStyle name="Percent Complete" xfId="6"/>
+    <cellStyle name="Period Headers" xfId="3"/>
+    <cellStyle name="Period Highlight Control" xfId="7"/>
+    <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Überschrift 1" xfId="1" builtinId="16" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -1179,70 +1055,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="Ausgewählter_Zeitraum" max="60" min="1" page="10" val="0"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Drehfeld 5" descr="Period Highlight Spin Control" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{205192DC-3ADA-734D-BC19-B98291E79920}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1471,50 +1283,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:BR40"/>
+  <dimension ref="A2:CL39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7265625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.546875" style="43" customWidth="1"/>
-    <col min="2" max="2" width="25.7421875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.62109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.27734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.3203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.27734375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.91015625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="4.2890625" style="1" customWidth="1"/>
-    <col min="10" max="17" width="2.7265625" style="1"/>
-    <col min="18" max="18" width="3.1171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="29" width="2.7265625" style="1"/>
+    <col min="1" max="1" width="4.5546875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" style="1" customWidth="1"/>
+    <col min="10" max="13" width="2.77734375" style="1"/>
+    <col min="14" max="17" width="2.77734375" style="48"/>
+    <col min="18" max="21" width="2.77734375" style="1"/>
+    <col min="22" max="25" width="2.77734375" style="48"/>
+    <col min="26" max="26" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="3.109375" style="48" customWidth="1"/>
+    <col min="29" max="30" width="2.77734375" style="1"/>
+    <col min="31" max="32" width="2.77734375" style="48"/>
+    <col min="33" max="36" width="2.77734375" style="1"/>
+    <col min="37" max="40" width="2.77734375" style="48"/>
+    <col min="41" max="43" width="2.77734375" style="1"/>
+    <col min="44" max="47" width="2.77734375" style="48"/>
+    <col min="48" max="49" width="2.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:70" ht="54" x14ac:dyDescent="0.75">
-      <c r="B2" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+    <row r="2" spans="1:90" ht="54">
+      <c r="B2" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+    <row r="3" spans="1:90" ht="21" customHeight="1">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="20"/>
       <c r="J3" s="8" t="s">
         <v>11</v>
@@ -1526,59 +1348,69 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-      <c r="R3" s="19">
-        <v>18</v>
-      </c>
+      <c r="R3" s="8"/>
       <c r="S3" s="8"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="18" t="s">
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="19">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="8"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="18" t="s">
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="6" t="s">
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="18" t="s">
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="6" t="s">
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BK3" s="13"/>
+      <c r="BL3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:70" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+    <row r="4" spans="1:90" ht="18.75" customHeight="1">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
       <c r="H4" s="20"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-    </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="AS5" s="41"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-    </row>
-    <row r="6" spans="1:70" ht="15" x14ac:dyDescent="0.2">
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+    </row>
+    <row r="5" spans="1:90">
+      <c r="BM5" s="39"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+    </row>
+    <row r="6" spans="1:90" ht="14.4">
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -1596,22 +1428,22 @@
         <v>6</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="AP6" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="57"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-    </row>
-    <row r="7" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BJ6" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK6" s="63"/>
+      <c r="BL6" s="63"/>
+      <c r="BM6" s="63"/>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:90" ht="13.5" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1631,109 +1463,133 @@
         <v>7</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>22</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
       <c r="U7" s="22"/>
-      <c r="AP7" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
-    </row>
-    <row r="8" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="22"/>
+      <c r="BJ7" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK7" s="63"/>
+      <c r="BL7" s="63"/>
+      <c r="BM7" s="63"/>
+      <c r="BN7" s="40"/>
+      <c r="BO7" s="40"/>
+      <c r="BP7" s="40"/>
+    </row>
+    <row r="8" spans="1:90" ht="13.5" customHeight="1">
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="55">
-        <v>43208</v>
-      </c>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="50">
-        <v>43215</v>
-      </c>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="50">
-        <v>43222</v>
-      </c>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="50">
-        <v>43229</v>
-      </c>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="50">
-        <v>43236</v>
-      </c>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="52">
-        <v>43243</v>
-      </c>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="52">
-        <v>43250</v>
-      </c>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="52">
-        <v>43257</v>
-      </c>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="53"/>
-      <c r="AO8" s="53"/>
-      <c r="AP8" s="52">
-        <v>43264</v>
-      </c>
-      <c r="AQ8" s="53"/>
-      <c r="AR8" s="53"/>
-      <c r="AS8" s="53"/>
-      <c r="AT8" s="53"/>
-      <c r="AU8" s="53"/>
-      <c r="AV8" s="53"/>
-      <c r="AW8" s="53"/>
-      <c r="AX8" s="53"/>
-      <c r="AY8" s="53"/>
-      <c r="AZ8" s="53"/>
-      <c r="BA8" s="53"/>
-    </row>
-    <row r="9" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="66">
+        <v>43416</v>
+      </c>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="66">
+        <v>43417</v>
+      </c>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="66">
+        <v>43418</v>
+      </c>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="66">
+        <v>43419</v>
+      </c>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="67"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="66">
+        <v>43420</v>
+      </c>
+      <c r="AQ8" s="67"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="67"/>
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="67"/>
+      <c r="AV8" s="67"/>
+      <c r="AW8" s="67"/>
+      <c r="AX8" s="64"/>
+      <c r="AY8" s="64"/>
+      <c r="AZ8" s="64"/>
+      <c r="BA8" s="64"/>
+      <c r="BB8" s="64"/>
+      <c r="BC8" s="64"/>
+      <c r="BD8" s="64"/>
+      <c r="BE8" s="64"/>
+      <c r="BF8" s="64"/>
+      <c r="BG8" s="64"/>
+      <c r="BH8" s="64"/>
+      <c r="BI8" s="64"/>
+      <c r="BJ8" s="64"/>
+      <c r="BK8" s="64"/>
+      <c r="BL8" s="64"/>
+      <c r="BM8" s="64"/>
+      <c r="BN8" s="65"/>
+      <c r="BO8" s="65"/>
+      <c r="BP8" s="65"/>
+      <c r="BQ8" s="65"/>
+      <c r="BR8" s="65"/>
+      <c r="BS8" s="65"/>
+      <c r="BT8" s="65"/>
+      <c r="BU8" s="65"/>
+    </row>
+    <row r="9" spans="1:90" ht="15.75" customHeight="1">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1742,202 +1598,182 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="40">
+      <c r="J9" s="38">
         <v>1</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="38">
         <v>2</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="38">
         <v>3</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="38">
         <v>4</v>
       </c>
-      <c r="N9" s="39">
+      <c r="N9" s="38">
         <v>5</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="38">
         <v>6</v>
       </c>
-      <c r="P9" s="39">
+      <c r="P9" s="38">
         <v>7</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="38">
         <v>8</v>
       </c>
-      <c r="R9" s="40">
+      <c r="R9" s="37">
         <v>9</v>
       </c>
-      <c r="S9" s="40">
+      <c r="S9" s="37">
         <v>10</v>
       </c>
-      <c r="T9" s="40">
+      <c r="T9" s="37">
         <v>11</v>
       </c>
-      <c r="U9" s="40">
+      <c r="U9" s="37">
         <v>12</v>
       </c>
-      <c r="V9" s="39">
+      <c r="V9" s="37">
         <v>13</v>
       </c>
-      <c r="W9" s="39">
+      <c r="W9" s="37">
         <v>14</v>
       </c>
-      <c r="X9" s="39">
+      <c r="X9" s="37">
         <v>15</v>
       </c>
-      <c r="Y9" s="39">
+      <c r="Y9" s="37">
         <v>16</v>
       </c>
-      <c r="Z9" s="40">
+      <c r="Z9" s="38">
         <v>17</v>
       </c>
-      <c r="AA9" s="40">
+      <c r="AA9" s="38">
         <v>18</v>
       </c>
-      <c r="AB9" s="40">
+      <c r="AB9" s="38">
         <v>19</v>
       </c>
-      <c r="AC9" s="40">
+      <c r="AC9" s="38">
         <v>20</v>
       </c>
-      <c r="AD9" s="39">
+      <c r="AD9" s="38">
         <v>21</v>
       </c>
-      <c r="AE9" s="39">
+      <c r="AE9" s="38">
         <v>22</v>
       </c>
-      <c r="AF9" s="39">
+      <c r="AF9" s="38">
         <v>23</v>
       </c>
-      <c r="AG9" s="39">
+      <c r="AG9" s="38">
         <v>24</v>
       </c>
-      <c r="AH9" s="40">
+      <c r="AH9" s="37">
         <v>25</v>
       </c>
-      <c r="AI9" s="40">
+      <c r="AI9" s="37">
         <v>26</v>
       </c>
-      <c r="AJ9" s="40">
+      <c r="AJ9" s="37">
         <v>27</v>
       </c>
-      <c r="AK9" s="40">
+      <c r="AK9" s="37">
         <v>28</v>
       </c>
-      <c r="AL9" s="39">
+      <c r="AL9" s="37">
         <v>29</v>
       </c>
-      <c r="AM9" s="39">
+      <c r="AM9" s="37">
         <v>30</v>
       </c>
-      <c r="AN9" s="39">
+      <c r="AN9" s="37">
         <v>31</v>
       </c>
-      <c r="AO9" s="39">
+      <c r="AO9" s="37">
         <v>32</v>
       </c>
-      <c r="AP9" s="40">
+      <c r="AP9" s="38">
         <v>33</v>
       </c>
-      <c r="AQ9" s="40">
+      <c r="AQ9" s="38">
         <v>34</v>
       </c>
-      <c r="AR9" s="40">
+      <c r="AR9" s="38">
         <v>35</v>
       </c>
-      <c r="AS9" s="40">
+      <c r="AS9" s="38">
         <v>36</v>
       </c>
-      <c r="AT9" s="3">
+      <c r="AT9" s="38">
         <v>37</v>
       </c>
-      <c r="AU9" s="3">
+      <c r="AU9" s="38">
         <v>38</v>
       </c>
-      <c r="AV9" s="3">
+      <c r="AV9" s="38">
         <v>39</v>
       </c>
-      <c r="AW9" s="21">
+      <c r="AW9" s="38">
         <v>40</v>
       </c>
-      <c r="AX9" s="3">
-        <v>41</v>
-      </c>
-      <c r="AY9" s="3">
-        <v>42</v>
-      </c>
-      <c r="AZ9" s="3">
-        <v>43</v>
-      </c>
-      <c r="BA9" s="21">
-        <v>44</v>
-      </c>
-      <c r="BB9" s="3">
-        <v>45</v>
-      </c>
-      <c r="BC9" s="3">
-        <v>46</v>
-      </c>
-      <c r="BD9" s="3">
-        <v>47</v>
-      </c>
-      <c r="BE9" s="3">
-        <v>48</v>
-      </c>
-      <c r="BF9" s="3">
-        <v>49</v>
-      </c>
-      <c r="BG9" s="3">
-        <v>50</v>
-      </c>
-      <c r="BH9" s="3">
-        <v>51</v>
-      </c>
-      <c r="BI9" s="3">
-        <v>52</v>
-      </c>
-      <c r="BJ9" s="3">
-        <v>53</v>
-      </c>
-      <c r="BK9" s="3">
-        <v>54</v>
-      </c>
-      <c r="BL9" s="3">
-        <v>55</v>
-      </c>
-      <c r="BM9" s="3">
-        <v>56</v>
-      </c>
-      <c r="BN9" s="3">
-        <v>57</v>
-      </c>
-      <c r="BO9" s="3">
-        <v>58</v>
-      </c>
-      <c r="BP9" s="3">
-        <v>59</v>
-      </c>
-      <c r="BQ9" s="3">
-        <v>60</v>
-      </c>
-      <c r="BR9" s="1"/>
-    </row>
-    <row r="10" spans="1:70" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47">
+      <c r="AX9" s="37"/>
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
+      <c r="BB9" s="38"/>
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="38"/>
+      <c r="BE9" s="38"/>
+      <c r="BF9" s="37"/>
+      <c r="BG9" s="37"/>
+      <c r="BH9" s="37"/>
+      <c r="BI9" s="37"/>
+      <c r="BJ9" s="38"/>
+      <c r="BK9" s="38"/>
+      <c r="BL9" s="38"/>
+      <c r="BM9" s="38"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="21"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="3"/>
+      <c r="BY9" s="3"/>
+      <c r="BZ9" s="3"/>
+      <c r="CA9" s="3"/>
+      <c r="CB9" s="3"/>
+      <c r="CC9" s="3"/>
+      <c r="CD9" s="3"/>
+      <c r="CE9" s="3"/>
+      <c r="CF9" s="3"/>
+      <c r="CG9" s="3"/>
+      <c r="CH9" s="3"/>
+      <c r="CI9" s="3"/>
+      <c r="CJ9" s="3"/>
+      <c r="CK9" s="3"/>
+      <c r="CL9" s="1"/>
+    </row>
+    <row r="10" spans="1:90" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="45">
         <v>1</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -1998,11 +1834,31 @@
       <c r="BO10" s="24"/>
       <c r="BP10" s="24"/>
       <c r="BQ10" s="24"/>
-      <c r="BR10" s="25"/>
-    </row>
-    <row r="11" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>39</v>
+      <c r="BR10" s="24"/>
+      <c r="BS10" s="24"/>
+      <c r="BT10" s="24"/>
+      <c r="BU10" s="24"/>
+      <c r="BV10" s="24"/>
+      <c r="BW10" s="24"/>
+      <c r="BX10" s="24"/>
+      <c r="BY10" s="24"/>
+      <c r="BZ10" s="24"/>
+      <c r="CA10" s="24"/>
+      <c r="CB10" s="24"/>
+      <c r="CC10" s="24"/>
+      <c r="CD10" s="24"/>
+      <c r="CE10" s="24"/>
+      <c r="CF10" s="24"/>
+      <c r="CG10" s="24"/>
+      <c r="CH10" s="24"/>
+      <c r="CI10" s="24"/>
+      <c r="CJ10" s="24"/>
+      <c r="CK10" s="24"/>
+      <c r="CL10" s="25"/>
+    </row>
+    <row r="11" spans="1:90" ht="18.75" customHeight="1">
+      <c r="A11" s="42" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>13</v>
@@ -2011,37 +1867,37 @@
         <v>1</v>
       </c>
       <c r="D11" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="15">
         <v>1</v>
       </c>
       <c r="F11" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" s="16">
         <v>1</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:70" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>40</v>
+    <row r="12" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A12" s="42" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="15">
         <v>3</v>
       </c>
       <c r="E12" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="15">
         <v>3</v>
@@ -2049,261 +1905,226 @@
       <c r="G12" s="16">
         <v>1</v>
       </c>
-      <c r="H12" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="32"/>
-    </row>
-    <row r="13" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>41</v>
+      <c r="H12" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A13" s="42" t="s">
+        <v>27</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C13" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G13" s="16">
         <v>1</v>
       </c>
-      <c r="H13" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="32"/>
-    </row>
-    <row r="14" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="H13" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A14" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="14"/>
       <c r="C14" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E14" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F14" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A15" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="32"/>
-    </row>
-    <row r="15" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="14"/>
       <c r="C15" s="15">
         <v>5</v>
       </c>
       <c r="D15" s="15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E15" s="15">
         <v>5</v>
       </c>
       <c r="F15" s="15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G15" s="16">
-        <v>1</v>
-      </c>
-      <c r="H15" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A16" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="32"/>
-    </row>
-    <row r="16" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="B16" s="14"/>
       <c r="C16" s="15">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D16" s="15">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E16" s="15">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F16" s="15">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G16" s="16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="32"/>
-    </row>
-    <row r="17" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A17" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="14"/>
       <c r="C17" s="15">
         <v>13</v>
       </c>
       <c r="D17" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17" s="15">
         <v>13</v>
       </c>
       <c r="F17" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="32"/>
-    </row>
-    <row r="18" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A18" s="42" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" s="15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F18" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G18" s="16">
-        <v>1</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="32"/>
-    </row>
-    <row r="19" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" s="70"/>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A19" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="69"/>
       <c r="C19" s="15">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D19" s="15">
         <v>5</v>
       </c>
       <c r="E19" s="15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" s="15">
         <v>2</v>
       </c>
       <c r="G19" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="32"/>
-    </row>
-    <row r="20" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="15">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="H19" s="70"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A20" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="17">
+        <v>16</v>
       </c>
       <c r="D20" s="15">
+        <v>4</v>
+      </c>
+      <c r="E20" s="15">
+        <v>16</v>
+      </c>
+      <c r="F20" s="15">
+        <v>4</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A21" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15">
+        <v>16</v>
+      </c>
+      <c r="D21" s="15">
         <v>5</v>
-      </c>
-      <c r="E20" s="15">
-        <v>17</v>
-      </c>
-      <c r="F20" s="15">
-        <v>2</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="32"/>
-    </row>
-    <row r="21" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="17">
-        <v>16</v>
-      </c>
-      <c r="D21" s="15">
-        <v>4</v>
       </c>
       <c r="E21" s="15">
         <v>16</v>
       </c>
       <c r="F21" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G21" s="16">
-        <v>1</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="32"/>
-    </row>
-    <row r="22" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A22" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="14"/>
       <c r="C22" s="15">
         <v>16</v>
       </c>
@@ -2319,490 +2140,558 @@
       <c r="G22" s="16">
         <v>0</v>
       </c>
-      <c r="H22" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="32"/>
-    </row>
-    <row r="23" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>25</v>
-      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A23" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="14"/>
       <c r="C23" s="15">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D23" s="15">
+        <v>6</v>
+      </c>
+      <c r="E23" s="15">
         <v>5</v>
       </c>
-      <c r="E23" s="15">
-        <v>16</v>
-      </c>
       <c r="F23" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G23" s="16">
         <v>0</v>
       </c>
-      <c r="H23" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="32"/>
-    </row>
-    <row r="24" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A24" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="14"/>
       <c r="C24" s="15">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D24" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E24" s="15">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F24" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AG24" s="47"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="47"/>
+      <c r="AO24" s="47"/>
+      <c r="AP24" s="47"/>
+      <c r="AQ24" s="47"/>
+      <c r="AV24" s="47"/>
+      <c r="AW24" s="47"/>
+    </row>
+    <row r="25" spans="1:90" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="28"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="28"/>
+      <c r="AQ25" s="28"/>
+      <c r="AR25" s="28"/>
+      <c r="AS25" s="28"/>
+      <c r="AT25" s="28"/>
+      <c r="AU25" s="28"/>
+      <c r="AV25" s="28"/>
+      <c r="AW25" s="28"/>
+      <c r="AX25" s="28"/>
+      <c r="AY25" s="28"/>
+      <c r="AZ25" s="28"/>
+      <c r="BA25" s="28"/>
+      <c r="BB25" s="28"/>
+      <c r="BC25" s="28"/>
+      <c r="BD25" s="28"/>
+      <c r="BE25" s="28"/>
+      <c r="BF25" s="28"/>
+      <c r="BG25" s="28"/>
+      <c r="BH25" s="28"/>
+      <c r="BI25" s="28"/>
+      <c r="BJ25" s="28"/>
+      <c r="BK25" s="28"/>
+      <c r="BL25" s="28"/>
+      <c r="BM25" s="28"/>
+      <c r="BN25" s="28"/>
+      <c r="BO25" s="28"/>
+      <c r="BP25" s="28"/>
+      <c r="BQ25" s="28"/>
+      <c r="BR25" s="28"/>
+      <c r="BS25" s="28"/>
+      <c r="BT25" s="28"/>
+      <c r="BU25" s="28"/>
+      <c r="BV25" s="28"/>
+      <c r="BW25" s="28"/>
+      <c r="BX25" s="28"/>
+      <c r="BY25" s="28"/>
+      <c r="BZ25" s="28"/>
+      <c r="CA25" s="28"/>
+      <c r="CB25" s="28"/>
+      <c r="CC25" s="28"/>
+      <c r="CD25" s="28"/>
+      <c r="CE25" s="28"/>
+      <c r="CF25" s="28"/>
+      <c r="CG25" s="28"/>
+      <c r="CH25" s="28"/>
+      <c r="CI25" s="28"/>
+      <c r="CJ25" s="28"/>
+      <c r="CK25" s="28"/>
+      <c r="CL25" s="25"/>
+    </row>
+    <row r="26" spans="1:90" s="57" customFormat="1" ht="18.899999999999999" customHeight="1">
+      <c r="A26" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="52">
+        <v>21</v>
+      </c>
+      <c r="D26" s="52">
+        <v>3</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53">
+        <v>0</v>
+      </c>
+      <c r="H26" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="56"/>
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="56"/>
+      <c r="AL26" s="56"/>
+      <c r="AM26" s="56"/>
+      <c r="AN26" s="56"/>
+      <c r="AO26" s="56"/>
+      <c r="AP26" s="56"/>
+      <c r="AQ26" s="56"/>
+      <c r="AR26" s="56"/>
+      <c r="AS26" s="56"/>
+      <c r="AT26" s="56"/>
+      <c r="AU26" s="56"/>
+      <c r="AV26" s="56"/>
+      <c r="AW26" s="56"/>
+    </row>
+    <row r="27" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A27" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15">
+        <v>21</v>
+      </c>
+      <c r="D27" s="15">
+        <v>2</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="46"/>
+      <c r="AG27" s="46"/>
+      <c r="AH27" s="46"/>
+      <c r="AI27" s="46"/>
+      <c r="AJ27" s="46"/>
+      <c r="AO27" s="46"/>
+      <c r="AP27" s="46"/>
+      <c r="AQ27" s="46"/>
+      <c r="AV27" s="46"/>
+      <c r="AW27" s="46"/>
+    </row>
+    <row r="28" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A28" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15">
+        <v>23</v>
+      </c>
+      <c r="D28" s="15">
         <v>1</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="32"/>
-    </row>
-    <row r="25" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="15">
-        <v>17</v>
-      </c>
-      <c r="D25" s="15">
-        <v>3</v>
-      </c>
-      <c r="E25" s="15">
-        <v>17</v>
-      </c>
-      <c r="F25" s="15">
-        <v>1</v>
-      </c>
-      <c r="G25" s="16">
-        <v>0</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
-    </row>
-    <row r="26" spans="1:70" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="28"/>
-      <c r="AO26" s="28"/>
-      <c r="AP26" s="28"/>
-      <c r="AQ26" s="28"/>
-      <c r="AR26" s="28"/>
-      <c r="AS26" s="28"/>
-      <c r="AT26" s="28"/>
-      <c r="AU26" s="28"/>
-      <c r="AV26" s="28"/>
-      <c r="AW26" s="28"/>
-      <c r="AX26" s="28"/>
-      <c r="AY26" s="28"/>
-      <c r="AZ26" s="28"/>
-      <c r="BA26" s="28"/>
-      <c r="BB26" s="28"/>
-      <c r="BC26" s="28"/>
-      <c r="BD26" s="28"/>
-      <c r="BE26" s="28"/>
-      <c r="BF26" s="28"/>
-      <c r="BG26" s="28"/>
-      <c r="BH26" s="28"/>
-      <c r="BI26" s="28"/>
-      <c r="BJ26" s="28"/>
-      <c r="BK26" s="28"/>
-      <c r="BL26" s="28"/>
-      <c r="BM26" s="28"/>
-      <c r="BN26" s="28"/>
-      <c r="BO26" s="28"/>
-      <c r="BP26" s="28"/>
-      <c r="BQ26" s="28"/>
-      <c r="BR26" s="25"/>
-    </row>
-    <row r="27" spans="1:70" s="65" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="60">
-        <v>21</v>
-      </c>
-      <c r="D27" s="60">
-        <v>3</v>
-      </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61">
-        <v>0</v>
-      </c>
-      <c r="H27" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="63"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="64"/>
-      <c r="AB27" s="64"/>
-      <c r="AC27" s="64"/>
-    </row>
-    <row r="28" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="15">
-        <v>21</v>
-      </c>
-      <c r="D28" s="15">
-        <v>2</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="16">
         <v>0</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="48"/>
-    </row>
-    <row r="29" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="15">
-        <v>23</v>
-      </c>
-      <c r="D29" s="15">
-        <v>1</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16">
+      <c r="H28" s="29"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AO28" s="46"/>
+      <c r="AP28" s="46"/>
+      <c r="AQ28" s="46"/>
+      <c r="AV28" s="46"/>
+      <c r="AW28" s="46"/>
+    </row>
+    <row r="29" spans="1:90" s="57" customFormat="1" ht="18.899999999999999" customHeight="1">
+      <c r="A29" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52">
+        <v>21</v>
+      </c>
+      <c r="D29" s="52">
+        <v>4</v>
+      </c>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53">
         <v>0</v>
       </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="48"/>
-    </row>
-    <row r="30" spans="1:70" s="65" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="60">
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="56"/>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="56"/>
+      <c r="AN29" s="56"/>
+      <c r="AO29" s="56"/>
+      <c r="AP29" s="56"/>
+      <c r="AQ29" s="56"/>
+      <c r="AR29" s="56"/>
+      <c r="AS29" s="56"/>
+      <c r="AT29" s="56"/>
+      <c r="AU29" s="56"/>
+      <c r="AV29" s="56"/>
+      <c r="AW29" s="56"/>
+    </row>
+    <row r="30" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A30" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="15">
         <v>21</v>
       </c>
-      <c r="D30" s="60">
-        <v>4</v>
-      </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61">
+      <c r="D30" s="15">
+        <v>5</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16">
         <v>0</v>
       </c>
-      <c r="H30" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="63"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="64"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="64"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="64"/>
-      <c r="Z30" s="64"/>
-      <c r="AA30" s="64"/>
-      <c r="AB30" s="64"/>
-      <c r="AC30" s="64"/>
-    </row>
-    <row r="31" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="H30" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="46"/>
+      <c r="AG30" s="46"/>
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="46"/>
+      <c r="AJ30" s="46"/>
+      <c r="AO30" s="46"/>
+      <c r="AP30" s="46"/>
+      <c r="AQ30" s="46"/>
+      <c r="AV30" s="46"/>
+      <c r="AW30" s="46"/>
+    </row>
+    <row r="31" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A31" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="14"/>
       <c r="C31" s="15">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D31" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="16">
         <v>0</v>
       </c>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-    </row>
-    <row r="32" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="15">
-        <v>24</v>
-      </c>
-      <c r="D32" s="15">
-        <v>2</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16">
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="47"/>
+      <c r="AG31" s="47"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="47"/>
+      <c r="AJ31" s="47"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="47"/>
+      <c r="AQ31" s="47"/>
+      <c r="AV31" s="47"/>
+      <c r="AW31" s="47"/>
+    </row>
+    <row r="32" spans="1:90" s="26" customFormat="1" ht="18.899999999999999" customHeight="1">
+      <c r="A32" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="58"/>
+      <c r="C32" s="59">
+        <v>21</v>
+      </c>
+      <c r="D32" s="59">
+        <v>8</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="60">
         <v>0</v>
       </c>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="49"/>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="49"/>
-    </row>
-    <row r="33" spans="1:70" s="26" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="67">
+      <c r="H32" s="61"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="25"/>
+      <c r="AJ32" s="25"/>
+      <c r="AK32" s="25"/>
+      <c r="AL32" s="25"/>
+      <c r="AM32" s="25"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="25"/>
+      <c r="AP32" s="25"/>
+      <c r="AQ32" s="25"/>
+      <c r="AR32" s="25"/>
+      <c r="AS32" s="25"/>
+      <c r="AT32" s="25"/>
+      <c r="AU32" s="25"/>
+      <c r="AV32" s="25"/>
+      <c r="AW32" s="25"/>
+    </row>
+    <row r="33" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A33" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15">
         <v>21</v>
       </c>
-      <c r="D33" s="67">
-        <v>8</v>
-      </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="68">
+      <c r="D33" s="15">
+        <v>5</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16">
         <v>0</v>
       </c>
-      <c r="H33" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" s="70"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
-    </row>
-    <row r="34" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="H33" s="29"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="46"/>
+      <c r="AG33" s="46"/>
+      <c r="AH33" s="46"/>
+      <c r="AI33" s="46"/>
+      <c r="AJ33" s="46"/>
+      <c r="AO33" s="46"/>
+      <c r="AP33" s="46"/>
+      <c r="AQ33" s="46"/>
+      <c r="AV33" s="46"/>
+      <c r="AW33" s="46"/>
+    </row>
+    <row r="34" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A34" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="14"/>
       <c r="C34" s="15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D34" s="15">
         <v>5</v>
@@ -2812,155 +2701,151 @@
       <c r="G34" s="16">
         <v>0</v>
       </c>
-      <c r="H34" s="31"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="48"/>
-    </row>
-    <row r="35" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="15">
-        <v>25</v>
-      </c>
-      <c r="D35" s="15">
-        <v>5</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16">
-        <v>0</v>
-      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="Z34" s="47"/>
+      <c r="AC34" s="47"/>
+      <c r="AD34" s="47"/>
+      <c r="AG34" s="47"/>
+      <c r="AH34" s="47"/>
+      <c r="AI34" s="47"/>
+      <c r="AJ34" s="47"/>
+      <c r="AO34" s="47"/>
+      <c r="AP34" s="47"/>
+      <c r="AQ34" s="47"/>
+      <c r="AV34" s="47"/>
+      <c r="AW34" s="47"/>
+    </row>
+    <row r="35" spans="1:90" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="31"/>
       <c r="I35" s="32"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="49"/>
-      <c r="AB35" s="49"/>
-      <c r="AC35" s="49"/>
-    </row>
-    <row r="36" spans="1:70" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="28"/>
-      <c r="AJ36" s="28"/>
-      <c r="AK36" s="28"/>
-      <c r="AL36" s="28"/>
-      <c r="AM36" s="28"/>
-      <c r="AN36" s="28"/>
-      <c r="AO36" s="28"/>
-      <c r="AP36" s="28"/>
-      <c r="AQ36" s="28"/>
-      <c r="AR36" s="28"/>
-      <c r="AS36" s="28"/>
-      <c r="AT36" s="28"/>
-      <c r="AU36" s="28"/>
-      <c r="AV36" s="28"/>
-      <c r="AW36" s="28"/>
-      <c r="AX36" s="28"/>
-      <c r="AY36" s="28"/>
-      <c r="AZ36" s="28"/>
-      <c r="BA36" s="28"/>
-      <c r="BB36" s="28"/>
-      <c r="BC36" s="28"/>
-      <c r="BD36" s="28"/>
-      <c r="BE36" s="28"/>
-      <c r="BF36" s="28"/>
-      <c r="BG36" s="28"/>
-      <c r="BH36" s="28"/>
-      <c r="BI36" s="28"/>
-      <c r="BJ36" s="28"/>
-      <c r="BK36" s="28"/>
-      <c r="BL36" s="28"/>
-      <c r="BM36" s="28"/>
-      <c r="BN36" s="28"/>
-      <c r="BO36" s="28"/>
-      <c r="BP36" s="28"/>
-      <c r="BQ36" s="28"/>
-      <c r="BR36" s="25"/>
-    </row>
-    <row r="37" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="28"/>
+      <c r="AJ35" s="28"/>
+      <c r="AK35" s="28"/>
+      <c r="AL35" s="28"/>
+      <c r="AM35" s="28"/>
+      <c r="AN35" s="28"/>
+      <c r="AO35" s="28"/>
+      <c r="AP35" s="28"/>
+      <c r="AQ35" s="28"/>
+      <c r="AR35" s="28"/>
+      <c r="AS35" s="28"/>
+      <c r="AT35" s="28"/>
+      <c r="AU35" s="28"/>
+      <c r="AV35" s="28"/>
+      <c r="AW35" s="28"/>
+      <c r="AX35" s="28"/>
+      <c r="AY35" s="28"/>
+      <c r="AZ35" s="28"/>
+      <c r="BA35" s="28"/>
+      <c r="BB35" s="28"/>
+      <c r="BC35" s="28"/>
+      <c r="BD35" s="28"/>
+      <c r="BE35" s="28"/>
+      <c r="BF35" s="28"/>
+      <c r="BG35" s="28"/>
+      <c r="BH35" s="28"/>
+      <c r="BI35" s="28"/>
+      <c r="BJ35" s="28"/>
+      <c r="BK35" s="28"/>
+      <c r="BL35" s="28"/>
+      <c r="BM35" s="28"/>
+      <c r="BN35" s="28"/>
+      <c r="BO35" s="28"/>
+      <c r="BP35" s="28"/>
+      <c r="BQ35" s="28"/>
+      <c r="BR35" s="28"/>
+      <c r="BS35" s="28"/>
+      <c r="BT35" s="28"/>
+      <c r="BU35" s="28"/>
+      <c r="BV35" s="28"/>
+      <c r="BW35" s="28"/>
+      <c r="BX35" s="28"/>
+      <c r="BY35" s="28"/>
+      <c r="BZ35" s="28"/>
+      <c r="CA35" s="28"/>
+      <c r="CB35" s="28"/>
+      <c r="CC35" s="28"/>
+      <c r="CD35" s="28"/>
+      <c r="CE35" s="28"/>
+      <c r="CF35" s="28"/>
+      <c r="CG35" s="28"/>
+      <c r="CH35" s="28"/>
+      <c r="CI35" s="28"/>
+      <c r="CJ35" s="28"/>
+      <c r="CK35" s="28"/>
+      <c r="CL35" s="25"/>
+    </row>
+    <row r="36" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A36" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15">
+        <v>30</v>
+      </c>
+      <c r="D36" s="15">
+        <v>3</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="16">
+        <v>0</v>
+      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A37" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="14"/>
       <c r="C37" s="15">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D37" s="15">
         <v>3</v>
@@ -2970,16 +2855,14 @@
       <c r="G37" s="16">
         <v>0</v>
       </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="32"/>
-    </row>
-    <row r="38" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>77</v>
-      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A38" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="14"/>
       <c r="C38" s="15">
         <v>28</v>
       </c>
@@ -2991,146 +2874,84 @@
       <c r="G38" s="16">
         <v>0</v>
       </c>
-      <c r="H38" s="31"/>
-      <c r="I38" s="32"/>
-    </row>
-    <row r="39" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="29"/>
+      <c r="I38" s="30"/>
+    </row>
+    <row r="39" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A39" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>76</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B39" s="14"/>
       <c r="C39" s="15">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D39" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="16">
         <v>0</v>
       </c>
-      <c r="H39" s="31"/>
-      <c r="I39" s="32"/>
-    </row>
-    <row r="40" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="15">
-        <v>31</v>
-      </c>
-      <c r="D40" s="15">
-        <v>2</v>
-      </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="16">
-        <v>0</v>
-      </c>
-      <c r="H40" s="35"/>
-      <c r="I40" s="36"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="AT8:AW8"/>
+    <mergeCell ref="AP8:AW8"/>
     <mergeCell ref="AX8:BA8"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="BB8:BE8"/>
     <mergeCell ref="B2:G4"/>
     <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
     <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="Z8:AG8"/>
+    <mergeCell ref="AH8:AO8"/>
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="BF8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="BN8:BQ8"/>
+    <mergeCell ref="BR8:BU8"/>
+    <mergeCell ref="BJ7:BM7"/>
   </mergeCells>
-  <conditionalFormatting sqref="J11:BQ25 J37:BQ40 J27:BQ35">
-    <cfRule type="expression" dxfId="11" priority="3">
+  <conditionalFormatting sqref="J36:CK39 J26:CK34 J11:CK24">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>ProzentAbgeschlossen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>ProzentAbgeschlossenUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>Ist</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>IstUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>Planen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>J$9=Ausgewählter_Zeitraum</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:BQ41">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="B40:CK40">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:BQ10">
-    <cfRule type="expression" dxfId="2" priority="10">
-      <formula>J$9=Ausgewählter_Zeitraum</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:BQ26">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>J$9=Ausgewählter_Zeitraum</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36:BQ36">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="J9:CK10 J25:CK25 J35:CK35">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>J$9=Ausgewählter_Zeitraum</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId4" name="Drehfeld 5">
-              <controlPr defaultSize="0" print="0" autoPict="0" altText="Period Highlight Spin Control">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>18</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>19</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Dokumentation + Diagramme etc/Zeitplan.xlsx
+++ b/Dokumentation + Diagramme etc/Zeitplan.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>Geplant</t>
   </si>
@@ -269,6 +269,33 @@
   </si>
   <si>
     <t>WebOberfläche</t>
+  </si>
+  <si>
+    <t>Klassendiagramm</t>
+  </si>
+  <si>
+    <t>SQL-Diagramm</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>Projektstrukturplan</t>
+  </si>
+  <si>
+    <t>Kostenplan</t>
+  </si>
+  <si>
+    <t>Ressourcenplan</t>
+  </si>
+  <si>
+    <t>Schnittstellendefinition</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Dokumentationserstellung</t>
   </si>
 </sst>
 </file>
@@ -854,31 +881,31 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="14" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1290,7 +1317,7 @@
   <dimension ref="A2:CL39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999"/>
@@ -1320,23 +1347,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:90" ht="54">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:90" ht="21" customHeight="1">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
       <c r="H3" s="20"/>
       <c r="J3" s="8" t="s">
         <v>11</v>
@@ -1391,12 +1418,12 @@
       </c>
     </row>
     <row r="4" spans="1:90" ht="18.75" customHeight="1">
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="20"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
@@ -1433,12 +1460,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="BJ6" s="63" t="s">
+      <c r="BJ6" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="BK6" s="63"/>
-      <c r="BL6" s="63"/>
-      <c r="BM6" s="63"/>
+      <c r="BK6" s="70"/>
+      <c r="BL6" s="70"/>
+      <c r="BM6" s="70"/>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
@@ -1491,12 +1518,12 @@
       <c r="AE7" s="49"/>
       <c r="AF7" s="49"/>
       <c r="AG7" s="22"/>
-      <c r="BJ7" s="63" t="s">
+      <c r="BJ7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="BK7" s="63"/>
-      <c r="BL7" s="63"/>
-      <c r="BM7" s="63"/>
+      <c r="BK7" s="70"/>
+      <c r="BL7" s="70"/>
+      <c r="BM7" s="70"/>
       <c r="BN7" s="40"/>
       <c r="BO7" s="40"/>
       <c r="BP7" s="40"/>
@@ -1564,30 +1591,30 @@
       <c r="AU8" s="67"/>
       <c r="AV8" s="67"/>
       <c r="AW8" s="67"/>
-      <c r="AX8" s="64"/>
-      <c r="AY8" s="64"/>
-      <c r="AZ8" s="64"/>
-      <c r="BA8" s="64"/>
-      <c r="BB8" s="64"/>
-      <c r="BC8" s="64"/>
-      <c r="BD8" s="64"/>
-      <c r="BE8" s="64"/>
-      <c r="BF8" s="64"/>
-      <c r="BG8" s="64"/>
-      <c r="BH8" s="64"/>
-      <c r="BI8" s="64"/>
-      <c r="BJ8" s="64"/>
-      <c r="BK8" s="64"/>
-      <c r="BL8" s="64"/>
-      <c r="BM8" s="64"/>
-      <c r="BN8" s="65"/>
-      <c r="BO8" s="65"/>
-      <c r="BP8" s="65"/>
-      <c r="BQ8" s="65"/>
-      <c r="BR8" s="65"/>
-      <c r="BS8" s="65"/>
-      <c r="BT8" s="65"/>
-      <c r="BU8" s="65"/>
+      <c r="AX8" s="68"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="68"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="68"/>
+      <c r="BC8" s="68"/>
+      <c r="BD8" s="68"/>
+      <c r="BE8" s="68"/>
+      <c r="BF8" s="68"/>
+      <c r="BG8" s="68"/>
+      <c r="BH8" s="68"/>
+      <c r="BI8" s="68"/>
+      <c r="BJ8" s="68"/>
+      <c r="BK8" s="68"/>
+      <c r="BL8" s="68"/>
+      <c r="BM8" s="68"/>
+      <c r="BN8" s="71"/>
+      <c r="BO8" s="71"/>
+      <c r="BP8" s="71"/>
+      <c r="BQ8" s="71"/>
+      <c r="BR8" s="71"/>
+      <c r="BS8" s="71"/>
+      <c r="BT8" s="71"/>
+      <c r="BU8" s="71"/>
     </row>
     <row r="9" spans="1:90" ht="15.75" customHeight="1">
       <c r="B9" s="3"/>
@@ -1941,7 +1968,9 @@
       <c r="A14" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="C14" s="15">
         <v>5</v>
       </c>
@@ -1964,7 +1993,9 @@
       <c r="A15" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="C15" s="15">
         <v>5</v>
       </c>
@@ -1987,7 +2018,9 @@
       <c r="A16" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="C16" s="15">
         <v>13</v>
       </c>
@@ -2010,7 +2043,9 @@
       <c r="A17" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="C17" s="15">
         <v>13</v>
       </c>
@@ -2033,6 +2068,9 @@
       <c r="A18" s="42" t="s">
         <v>32</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="C18" s="15">
         <v>17</v>
       </c>
@@ -2048,14 +2086,16 @@
       <c r="G18" s="16">
         <v>0</v>
       </c>
-      <c r="H18" s="70"/>
+      <c r="H18" s="64"/>
       <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="69"/>
+      <c r="B19" s="63" t="s">
+        <v>67</v>
+      </c>
       <c r="C19" s="15">
         <v>18</v>
       </c>
@@ -2071,14 +2111,16 @@
       <c r="G19" s="16">
         <v>0</v>
       </c>
-      <c r="H19" s="70"/>
+      <c r="H19" s="64"/>
       <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="C20" s="17">
         <v>16</v>
       </c>
@@ -2323,7 +2365,7 @@
       <c r="G26" s="53">
         <v>0</v>
       </c>
-      <c r="H26" s="71" t="s">
+      <c r="H26" s="65" t="s">
         <v>56</v>
       </c>
       <c r="I26" s="55"/>
@@ -2509,7 +2551,7 @@
       <c r="A30" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="63" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="15">
@@ -2523,7 +2565,7 @@
       <c r="G30" s="16">
         <v>0</v>
       </c>
-      <c r="H30" s="70" t="s">
+      <c r="H30" s="64" t="s">
         <v>17</v>
       </c>
       <c r="I30" s="30"/>
@@ -2824,7 +2866,9 @@
       <c r="A36" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="14"/>
+      <c r="B36" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="C36" s="15">
         <v>30</v>
       </c>
@@ -2843,7 +2887,9 @@
       <c r="A37" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="14"/>
+      <c r="B37" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="C37" s="15">
         <v>28</v>
       </c>
@@ -2898,6 +2944,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="BF8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="BN8:BQ8"/>
+    <mergeCell ref="BR8:BU8"/>
+    <mergeCell ref="BJ7:BM7"/>
     <mergeCell ref="AP8:AW8"/>
     <mergeCell ref="AX8:BA8"/>
     <mergeCell ref="BB8:BE8"/>
@@ -2906,12 +2958,6 @@
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="Z8:AG8"/>
     <mergeCell ref="AH8:AO8"/>
-    <mergeCell ref="BJ6:BM6"/>
-    <mergeCell ref="BF8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="BN8:BQ8"/>
-    <mergeCell ref="BR8:BU8"/>
-    <mergeCell ref="BJ7:BM7"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:CK39 J26:CK34 J11:CK24">
     <cfRule type="expression" dxfId="9" priority="3">

--- a/Dokumentation + Diagramme etc/Zeitplan.xlsx
+++ b/Dokumentation + Diagramme etc/Zeitplan.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>Geplant</t>
   </si>
@@ -172,9 +172,6 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>1.6</t>
-  </si>
-  <si>
     <t>1.7</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>Klassendiagramm</t>
   </si>
   <si>
-    <t>SQL-Diagramm</t>
-  </si>
-  <si>
     <t>Use Case</t>
   </si>
   <si>
@@ -296,6 +290,15 @@
   </si>
   <si>
     <t>Dokumentationserstellung</t>
+  </si>
+  <si>
+    <t>Diragramm</t>
+  </si>
+  <si>
+    <t>Anlegen</t>
+  </si>
+  <si>
+    <t>Aufsetzten</t>
   </si>
 </sst>
 </file>
@@ -890,23 +893,23 @@
     <xf numFmtId="9" fontId="16" fillId="14" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1316,8 +1319,8 @@
   </sheetPr>
   <dimension ref="A2:CL39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999"/>
@@ -1347,23 +1350,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:90" ht="54">
-      <c r="B2" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:90" ht="21" customHeight="1">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="20"/>
       <c r="J3" s="8" t="s">
         <v>11</v>
@@ -1418,12 +1421,12 @@
       </c>
     </row>
     <row r="4" spans="1:90" ht="18.75" customHeight="1">
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="20"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
@@ -1460,12 +1463,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="BJ6" s="70" t="s">
+      <c r="BJ6" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="BK6" s="70"/>
-      <c r="BL6" s="70"/>
-      <c r="BM6" s="70"/>
+      <c r="BK6" s="66"/>
+      <c r="BL6" s="66"/>
+      <c r="BM6" s="66"/>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
@@ -1518,12 +1521,12 @@
       <c r="AE7" s="49"/>
       <c r="AF7" s="49"/>
       <c r="AG7" s="22"/>
-      <c r="BJ7" s="70" t="s">
+      <c r="BJ7" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="BK7" s="70"/>
-      <c r="BL7" s="70"/>
-      <c r="BM7" s="70"/>
+      <c r="BK7" s="66"/>
+      <c r="BL7" s="66"/>
+      <c r="BM7" s="66"/>
       <c r="BN7" s="40"/>
       <c r="BO7" s="40"/>
       <c r="BP7" s="40"/>
@@ -1541,80 +1544,80 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="66">
+      <c r="J8" s="69">
         <v>43416</v>
       </c>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
-      <c r="R8" s="66">
+      <c r="R8" s="69">
         <v>43417</v>
       </c>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="49"/>
       <c r="W8" s="49"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="49"/>
-      <c r="Z8" s="66">
+      <c r="Z8" s="69">
         <v>43418</v>
       </c>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="66">
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="69">
         <v>43419</v>
       </c>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="67"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="66">
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="70"/>
+      <c r="AL8" s="70"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="70"/>
+      <c r="AP8" s="69">
         <v>43420</v>
       </c>
-      <c r="AQ8" s="67"/>
-      <c r="AR8" s="67"/>
-      <c r="AS8" s="67"/>
-      <c r="AT8" s="67"/>
-      <c r="AU8" s="67"/>
-      <c r="AV8" s="67"/>
-      <c r="AW8" s="67"/>
-      <c r="AX8" s="68"/>
-      <c r="AY8" s="68"/>
-      <c r="AZ8" s="68"/>
-      <c r="BA8" s="68"/>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="68"/>
-      <c r="BD8" s="68"/>
-      <c r="BE8" s="68"/>
-      <c r="BF8" s="68"/>
-      <c r="BG8" s="68"/>
-      <c r="BH8" s="68"/>
-      <c r="BI8" s="68"/>
-      <c r="BJ8" s="68"/>
-      <c r="BK8" s="68"/>
-      <c r="BL8" s="68"/>
-      <c r="BM8" s="68"/>
-      <c r="BN8" s="71"/>
-      <c r="BO8" s="71"/>
-      <c r="BP8" s="71"/>
-      <c r="BQ8" s="71"/>
-      <c r="BR8" s="71"/>
-      <c r="BS8" s="71"/>
-      <c r="BT8" s="71"/>
-      <c r="BU8" s="71"/>
+      <c r="AQ8" s="70"/>
+      <c r="AR8" s="70"/>
+      <c r="AS8" s="70"/>
+      <c r="AT8" s="70"/>
+      <c r="AU8" s="70"/>
+      <c r="AV8" s="70"/>
+      <c r="AW8" s="70"/>
+      <c r="AX8" s="67"/>
+      <c r="AY8" s="67"/>
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="67"/>
+      <c r="BB8" s="67"/>
+      <c r="BC8" s="67"/>
+      <c r="BD8" s="67"/>
+      <c r="BE8" s="67"/>
+      <c r="BF8" s="67"/>
+      <c r="BG8" s="67"/>
+      <c r="BH8" s="67"/>
+      <c r="BI8" s="67"/>
+      <c r="BJ8" s="67"/>
+      <c r="BK8" s="67"/>
+      <c r="BL8" s="67"/>
+      <c r="BM8" s="67"/>
+      <c r="BN8" s="68"/>
+      <c r="BO8" s="68"/>
+      <c r="BP8" s="68"/>
+      <c r="BQ8" s="68"/>
+      <c r="BR8" s="68"/>
+      <c r="BS8" s="68"/>
+      <c r="BT8" s="68"/>
+      <c r="BU8" s="68"/>
     </row>
     <row r="9" spans="1:90" ht="15.75" customHeight="1">
       <c r="B9" s="3"/>
@@ -1933,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="30"/>
     </row>
@@ -1942,7 +1945,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="15">
         <v>4</v>
@@ -1960,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="30"/>
     </row>
@@ -1969,7 +1972,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="15">
         <v>5</v>
@@ -1994,19 +1997,19 @@
         <v>29</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="15">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D15" s="15">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E15" s="15">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F15" s="15">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G15" s="16">
         <v>0</v>
@@ -2019,19 +2022,19 @@
         <v>30</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="15">
         <v>13</v>
       </c>
       <c r="D16" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" s="15">
         <v>13</v>
       </c>
       <c r="F16" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="16">
         <v>0</v>
@@ -2043,45 +2046,45 @@
       <c r="A17" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>65</v>
+      <c r="B17" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C17" s="15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D17" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17" s="15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F17" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" s="16">
         <v>0</v>
       </c>
-      <c r="H17" s="29"/>
+      <c r="H17" s="64"/>
       <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A18" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>66</v>
+      <c r="B18" s="63" t="s">
+        <v>65</v>
       </c>
       <c r="C18" s="15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" s="15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="16">
         <v>0</v>
@@ -2091,47 +2094,45 @@
     </row>
     <row r="19" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="15">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="17">
+        <v>16</v>
       </c>
       <c r="D19" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19" s="16">
         <v>0</v>
       </c>
-      <c r="H19" s="64"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="17">
+        <v>33</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15">
         <v>16</v>
       </c>
       <c r="D20" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="15">
         <v>16</v>
       </c>
       <c r="F20" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20" s="16">
         <v>0</v>
@@ -2141,7 +2142,7 @@
     </row>
     <row r="21" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="15">
@@ -2168,16 +2169,16 @@
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="15">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D22" s="15">
+        <v>6</v>
+      </c>
+      <c r="E22" s="15">
         <v>5</v>
       </c>
-      <c r="E22" s="15">
-        <v>16</v>
-      </c>
       <c r="F22" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G22" s="16">
         <v>0</v>
@@ -2187,239 +2188,259 @@
     </row>
     <row r="23" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A23" s="42" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D23" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23" s="15">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F23" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G23" s="16">
         <v>0</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:90" ht="18.899999999999999" customHeight="1">
-      <c r="A24" s="42" t="s">
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="47"/>
+      <c r="AJ23" s="47"/>
+      <c r="AO23" s="47"/>
+      <c r="AP23" s="47"/>
+      <c r="AQ23" s="47"/>
+      <c r="AV23" s="47"/>
+      <c r="AW23" s="47"/>
+    </row>
+    <row r="24" spans="1:90" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="28"/>
+      <c r="AR24" s="28"/>
+      <c r="AS24" s="28"/>
+      <c r="AT24" s="28"/>
+      <c r="AU24" s="28"/>
+      <c r="AV24" s="28"/>
+      <c r="AW24" s="28"/>
+      <c r="AX24" s="28"/>
+      <c r="AY24" s="28"/>
+      <c r="AZ24" s="28"/>
+      <c r="BA24" s="28"/>
+      <c r="BB24" s="28"/>
+      <c r="BC24" s="28"/>
+      <c r="BD24" s="28"/>
+      <c r="BE24" s="28"/>
+      <c r="BF24" s="28"/>
+      <c r="BG24" s="28"/>
+      <c r="BH24" s="28"/>
+      <c r="BI24" s="28"/>
+      <c r="BJ24" s="28"/>
+      <c r="BK24" s="28"/>
+      <c r="BL24" s="28"/>
+      <c r="BM24" s="28"/>
+      <c r="BN24" s="28"/>
+      <c r="BO24" s="28"/>
+      <c r="BP24" s="28"/>
+      <c r="BQ24" s="28"/>
+      <c r="BR24" s="28"/>
+      <c r="BS24" s="28"/>
+      <c r="BT24" s="28"/>
+      <c r="BU24" s="28"/>
+      <c r="BV24" s="28"/>
+      <c r="BW24" s="28"/>
+      <c r="BX24" s="28"/>
+      <c r="BY24" s="28"/>
+      <c r="BZ24" s="28"/>
+      <c r="CA24" s="28"/>
+      <c r="CB24" s="28"/>
+      <c r="CC24" s="28"/>
+      <c r="CD24" s="28"/>
+      <c r="CE24" s="28"/>
+      <c r="CF24" s="28"/>
+      <c r="CG24" s="28"/>
+      <c r="CH24" s="28"/>
+      <c r="CI24" s="28"/>
+      <c r="CJ24" s="28"/>
+      <c r="CK24" s="28"/>
+      <c r="CL24" s="25"/>
+    </row>
+    <row r="25" spans="1:90" s="57" customFormat="1" ht="18.899999999999999" customHeight="1">
+      <c r="A25" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="52">
+        <v>21</v>
+      </c>
+      <c r="D25" s="52">
+        <v>3</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53">
+        <v>0</v>
+      </c>
+      <c r="H25" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15">
-        <v>17</v>
-      </c>
-      <c r="D24" s="15">
-        <v>3</v>
-      </c>
-      <c r="E24" s="15">
-        <v>17</v>
-      </c>
-      <c r="F24" s="15">
-        <v>1</v>
-      </c>
-      <c r="G24" s="16">
+      <c r="I25" s="55"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="56"/>
+      <c r="AN25" s="56"/>
+      <c r="AO25" s="56"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="56"/>
+      <c r="AR25" s="56"/>
+      <c r="AS25" s="56"/>
+      <c r="AT25" s="56"/>
+      <c r="AU25" s="56"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+    </row>
+    <row r="26" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A26" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="15">
+        <v>21</v>
+      </c>
+      <c r="D26" s="15">
+        <v>2</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16">
         <v>0</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="Z24" s="47"/>
-      <c r="AC24" s="47"/>
-      <c r="AD24" s="47"/>
-      <c r="AG24" s="47"/>
-      <c r="AH24" s="47"/>
-      <c r="AI24" s="47"/>
-      <c r="AJ24" s="47"/>
-      <c r="AO24" s="47"/>
-      <c r="AP24" s="47"/>
-      <c r="AQ24" s="47"/>
-      <c r="AV24" s="47"/>
-      <c r="AW24" s="47"/>
-    </row>
-    <row r="25" spans="1:90" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="28"/>
-      <c r="AO25" s="28"/>
-      <c r="AP25" s="28"/>
-      <c r="AQ25" s="28"/>
-      <c r="AR25" s="28"/>
-      <c r="AS25" s="28"/>
-      <c r="AT25" s="28"/>
-      <c r="AU25" s="28"/>
-      <c r="AV25" s="28"/>
-      <c r="AW25" s="28"/>
-      <c r="AX25" s="28"/>
-      <c r="AY25" s="28"/>
-      <c r="AZ25" s="28"/>
-      <c r="BA25" s="28"/>
-      <c r="BB25" s="28"/>
-      <c r="BC25" s="28"/>
-      <c r="BD25" s="28"/>
-      <c r="BE25" s="28"/>
-      <c r="BF25" s="28"/>
-      <c r="BG25" s="28"/>
-      <c r="BH25" s="28"/>
-      <c r="BI25" s="28"/>
-      <c r="BJ25" s="28"/>
-      <c r="BK25" s="28"/>
-      <c r="BL25" s="28"/>
-      <c r="BM25" s="28"/>
-      <c r="BN25" s="28"/>
-      <c r="BO25" s="28"/>
-      <c r="BP25" s="28"/>
-      <c r="BQ25" s="28"/>
-      <c r="BR25" s="28"/>
-      <c r="BS25" s="28"/>
-      <c r="BT25" s="28"/>
-      <c r="BU25" s="28"/>
-      <c r="BV25" s="28"/>
-      <c r="BW25" s="28"/>
-      <c r="BX25" s="28"/>
-      <c r="BY25" s="28"/>
-      <c r="BZ25" s="28"/>
-      <c r="CA25" s="28"/>
-      <c r="CB25" s="28"/>
-      <c r="CC25" s="28"/>
-      <c r="CD25" s="28"/>
-      <c r="CE25" s="28"/>
-      <c r="CF25" s="28"/>
-      <c r="CG25" s="28"/>
-      <c r="CH25" s="28"/>
-      <c r="CI25" s="28"/>
-      <c r="CJ25" s="28"/>
-      <c r="CK25" s="28"/>
-      <c r="CL25" s="25"/>
-    </row>
-    <row r="26" spans="1:90" s="57" customFormat="1" ht="18.899999999999999" customHeight="1">
-      <c r="A26" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="52">
-        <v>21</v>
-      </c>
-      <c r="D26" s="52">
-        <v>3</v>
-      </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53">
-        <v>0</v>
-      </c>
-      <c r="H26" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="56"/>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="56"/>
-      <c r="AN26" s="56"/>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="56"/>
-      <c r="AQ26" s="56"/>
-      <c r="AR26" s="56"/>
-      <c r="AS26" s="56"/>
-      <c r="AT26" s="56"/>
-      <c r="AU26" s="56"/>
-      <c r="AV26" s="56"/>
-      <c r="AW26" s="56"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="46"/>
+      <c r="AQ26" s="46"/>
+      <c r="AV26" s="46"/>
+      <c r="AW26" s="46"/>
     </row>
     <row r="27" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A27" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="14"/>
+      <c r="B27" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="C27" s="15">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D27" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -2450,47 +2471,41 @@
       <c r="AW27" s="46"/>
     </row>
     <row r="28" spans="1:90" ht="18.899999999999999" customHeight="1">
-      <c r="A28" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15">
-        <v>23</v>
-      </c>
-      <c r="D28" s="15">
-        <v>1</v>
-      </c>
+      <c r="A28" s="42"/>
+      <c r="B28" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="16">
-        <v>0</v>
-      </c>
+      <c r="G28" s="16"/>
       <c r="H28" s="29"/>
       <c r="I28" s="30"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AO28" s="46"/>
-      <c r="AP28" s="46"/>
-      <c r="AQ28" s="46"/>
-      <c r="AV28" s="46"/>
-      <c r="AW28" s="46"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="48"/>
+      <c r="AI28" s="48"/>
+      <c r="AJ28" s="48"/>
+      <c r="AO28" s="48"/>
+      <c r="AP28" s="48"/>
+      <c r="AQ28" s="48"/>
+      <c r="AV28" s="48"/>
+      <c r="AW28" s="48"/>
     </row>
     <row r="29" spans="1:90" s="57" customFormat="1" ht="18.899999999999999" customHeight="1">
       <c r="A29" s="50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="52"/>
       <c r="C29" s="52">
@@ -2549,10 +2564,10 @@
     </row>
     <row r="30" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A30" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="15">
         <v>21</v>
@@ -2592,7 +2607,7 @@
     </row>
     <row r="31" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A31" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="15">
@@ -2631,7 +2646,7 @@
     </row>
     <row r="32" spans="1:90" s="26" customFormat="1" ht="18.899999999999999" customHeight="1">
       <c r="A32" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="58"/>
       <c r="C32" s="59">
@@ -2690,7 +2705,7 @@
     </row>
     <row r="33" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A33" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="15">
@@ -2729,7 +2744,7 @@
     </row>
     <row r="34" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A34" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="15">
@@ -2768,10 +2783,10 @@
     </row>
     <row r="35" spans="1:90" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -2864,10 +2879,10 @@
     </row>
     <row r="36" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A36" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" s="15">
         <v>30</v>
@@ -2885,10 +2900,10 @@
     </row>
     <row r="37" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A37" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" s="15">
         <v>28</v>
@@ -2906,7 +2921,7 @@
     </row>
     <row r="38" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="15">
@@ -2925,7 +2940,7 @@
     </row>
     <row r="39" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A39" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="15">
@@ -2944,12 +2959,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="BJ6:BM6"/>
-    <mergeCell ref="BF8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="BN8:BQ8"/>
-    <mergeCell ref="BR8:BU8"/>
-    <mergeCell ref="BJ7:BM7"/>
     <mergeCell ref="AP8:AW8"/>
     <mergeCell ref="AX8:BA8"/>
     <mergeCell ref="BB8:BE8"/>
@@ -2958,8 +2967,14 @@
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="Z8:AG8"/>
     <mergeCell ref="AH8:AO8"/>
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="BF8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="BN8:BQ8"/>
+    <mergeCell ref="BR8:BU8"/>
+    <mergeCell ref="BJ7:BM7"/>
   </mergeCells>
-  <conditionalFormatting sqref="J36:CK39 J26:CK34 J11:CK24">
+  <conditionalFormatting sqref="J36:CK39 J25:CK34 J11:CK23">
     <cfRule type="expression" dxfId="9" priority="3">
       <formula>ProzentAbgeschlossen</formula>
     </cfRule>
@@ -2990,7 +3005,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:CK10 J25:CK25 J35:CK35">
+  <conditionalFormatting sqref="J9:CK10 J24:CK24 J35:CK35">
     <cfRule type="expression" dxfId="0" priority="10">
       <formula>J$9=Ausgewählter_Zeitraum</formula>
     </cfRule>

--- a/Dokumentation + Diagramme etc/Zeitplan.xlsx
+++ b/Dokumentation + Diagramme etc/Zeitplan.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>Geplant</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>Aufsetzten</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>Aktivitätsdiagramm</t>
   </si>
 </sst>
 </file>
@@ -893,23 +899,23 @@
     <xf numFmtId="9" fontId="16" fillId="14" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1319,8 +1325,8 @@
   </sheetPr>
   <dimension ref="A2:CL39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999"/>
@@ -1350,23 +1356,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:90" ht="54">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:90" ht="21" customHeight="1">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
       <c r="H3" s="20"/>
       <c r="J3" s="8" t="s">
         <v>11</v>
@@ -1421,12 +1427,12 @@
       </c>
     </row>
     <row r="4" spans="1:90" ht="18.75" customHeight="1">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="20"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
@@ -1463,12 +1469,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="BJ6" s="66" t="s">
+      <c r="BJ6" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="BK6" s="66"/>
-      <c r="BL6" s="66"/>
-      <c r="BM6" s="66"/>
+      <c r="BK6" s="70"/>
+      <c r="BL6" s="70"/>
+      <c r="BM6" s="70"/>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
@@ -1521,12 +1527,12 @@
       <c r="AE7" s="49"/>
       <c r="AF7" s="49"/>
       <c r="AG7" s="22"/>
-      <c r="BJ7" s="66" t="s">
+      <c r="BJ7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="BK7" s="66"/>
-      <c r="BL7" s="66"/>
-      <c r="BM7" s="66"/>
+      <c r="BK7" s="70"/>
+      <c r="BL7" s="70"/>
+      <c r="BM7" s="70"/>
       <c r="BN7" s="40"/>
       <c r="BO7" s="40"/>
       <c r="BP7" s="40"/>
@@ -1544,80 +1550,80 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="69">
+      <c r="J8" s="66">
         <v>43416</v>
       </c>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
-      <c r="R8" s="69">
+      <c r="R8" s="66">
         <v>43417</v>
       </c>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="49"/>
       <c r="W8" s="49"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="49"/>
-      <c r="Z8" s="69">
+      <c r="Z8" s="66">
         <v>43418</v>
       </c>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="70"/>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="69">
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="66">
         <v>43419</v>
       </c>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="70"/>
-      <c r="AN8" s="70"/>
-      <c r="AO8" s="70"/>
-      <c r="AP8" s="69">
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="67"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="66">
         <v>43420</v>
       </c>
-      <c r="AQ8" s="70"/>
-      <c r="AR8" s="70"/>
-      <c r="AS8" s="70"/>
-      <c r="AT8" s="70"/>
-      <c r="AU8" s="70"/>
-      <c r="AV8" s="70"/>
-      <c r="AW8" s="70"/>
-      <c r="AX8" s="67"/>
-      <c r="AY8" s="67"/>
-      <c r="AZ8" s="67"/>
-      <c r="BA8" s="67"/>
-      <c r="BB8" s="67"/>
-      <c r="BC8" s="67"/>
-      <c r="BD8" s="67"/>
-      <c r="BE8" s="67"/>
-      <c r="BF8" s="67"/>
-      <c r="BG8" s="67"/>
-      <c r="BH8" s="67"/>
-      <c r="BI8" s="67"/>
-      <c r="BJ8" s="67"/>
-      <c r="BK8" s="67"/>
-      <c r="BL8" s="67"/>
-      <c r="BM8" s="67"/>
-      <c r="BN8" s="68"/>
-      <c r="BO8" s="68"/>
-      <c r="BP8" s="68"/>
-      <c r="BQ8" s="68"/>
-      <c r="BR8" s="68"/>
-      <c r="BS8" s="68"/>
-      <c r="BT8" s="68"/>
-      <c r="BU8" s="68"/>
+      <c r="AQ8" s="67"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="67"/>
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="67"/>
+      <c r="AV8" s="67"/>
+      <c r="AW8" s="67"/>
+      <c r="AX8" s="68"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="68"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="68"/>
+      <c r="BC8" s="68"/>
+      <c r="BD8" s="68"/>
+      <c r="BE8" s="68"/>
+      <c r="BF8" s="68"/>
+      <c r="BG8" s="68"/>
+      <c r="BH8" s="68"/>
+      <c r="BI8" s="68"/>
+      <c r="BJ8" s="68"/>
+      <c r="BK8" s="68"/>
+      <c r="BL8" s="68"/>
+      <c r="BM8" s="68"/>
+      <c r="BN8" s="71"/>
+      <c r="BO8" s="71"/>
+      <c r="BP8" s="71"/>
+      <c r="BQ8" s="71"/>
+      <c r="BR8" s="71"/>
+      <c r="BS8" s="71"/>
+      <c r="BT8" s="71"/>
+      <c r="BU8" s="71"/>
     </row>
     <row r="9" spans="1:90" ht="15.75" customHeight="1">
       <c r="B9" s="3"/>
@@ -1924,13 +1930,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="15">
         <v>2</v>
       </c>
       <c r="F12" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="16">
         <v>1</v>
@@ -2050,19 +2056,19 @@
         <v>64</v>
       </c>
       <c r="C17" s="15">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D17" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="15">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F17" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H17" s="64"/>
       <c r="I17" s="30"/>
@@ -2075,19 +2081,19 @@
         <v>65</v>
       </c>
       <c r="C18" s="15">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D18" s="15">
+        <v>4</v>
+      </c>
+      <c r="E18" s="15">
         <v>5</v>
       </c>
-      <c r="E18" s="15">
-        <v>18</v>
-      </c>
       <c r="F18" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H18" s="64"/>
       <c r="I18" s="30"/>
@@ -2100,19 +2106,19 @@
         <v>66</v>
       </c>
       <c r="C19" s="17">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D19" s="15">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15">
         <v>4</v>
       </c>
-      <c r="E19" s="15">
-        <v>16</v>
-      </c>
       <c r="F19" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="30"/>
@@ -2121,7 +2127,9 @@
       <c r="A20" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="C20" s="15">
         <v>16</v>
       </c>
@@ -2396,15 +2404,19 @@
         <v>69</v>
       </c>
       <c r="C26" s="15">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D26" s="15">
-        <v>2</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="15">
+        <v>9</v>
+      </c>
+      <c r="F26" s="15">
+        <v>1</v>
+      </c>
       <c r="G26" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="30"/>
@@ -2434,18 +2446,22 @@
         <v>49</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" s="15">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D27" s="15">
         <v>1</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="15">
+        <v>10</v>
+      </c>
+      <c r="F27" s="15">
+        <v>1</v>
+      </c>
       <c r="G27" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="30"/>
@@ -2471,9 +2487,11 @@
       <c r="AW27" s="46"/>
     </row>
     <row r="28" spans="1:90" ht="18.899999999999999" customHeight="1">
-      <c r="A28" s="42"/>
-      <c r="B28" s="14" t="s">
-        <v>71</v>
+      <c r="A28" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -2959,6 +2977,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="BF8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="BN8:BQ8"/>
+    <mergeCell ref="BR8:BU8"/>
+    <mergeCell ref="BJ7:BM7"/>
     <mergeCell ref="AP8:AW8"/>
     <mergeCell ref="AX8:BA8"/>
     <mergeCell ref="BB8:BE8"/>
@@ -2967,12 +2991,6 @@
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="Z8:AG8"/>
     <mergeCell ref="AH8:AO8"/>
-    <mergeCell ref="BJ6:BM6"/>
-    <mergeCell ref="BF8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="BN8:BQ8"/>
-    <mergeCell ref="BR8:BU8"/>
-    <mergeCell ref="BJ7:BM7"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:CK39 J25:CK34 J11:CK23">
     <cfRule type="expression" dxfId="9" priority="3">

--- a/Dokumentation + Diagramme etc/Zeitplan.xlsx
+++ b/Dokumentation + Diagramme etc/Zeitplan.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>Geplant</t>
   </si>
@@ -899,23 +899,23 @@
     <xf numFmtId="9" fontId="16" fillId="14" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1326,7 +1326,7 @@
   <dimension ref="A2:CL39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="AG19" sqref="AG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999"/>
@@ -1356,23 +1356,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:90" ht="54">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:90" ht="21" customHeight="1">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="20"/>
       <c r="J3" s="8" t="s">
         <v>11</v>
@@ -1427,12 +1427,12 @@
       </c>
     </row>
     <row r="4" spans="1:90" ht="18.75" customHeight="1">
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="20"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
@@ -1469,12 +1469,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="BJ6" s="70" t="s">
+      <c r="BJ6" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="BK6" s="70"/>
-      <c r="BL6" s="70"/>
-      <c r="BM6" s="70"/>
+      <c r="BK6" s="66"/>
+      <c r="BL6" s="66"/>
+      <c r="BM6" s="66"/>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
@@ -1527,12 +1527,12 @@
       <c r="AE7" s="49"/>
       <c r="AF7" s="49"/>
       <c r="AG7" s="22"/>
-      <c r="BJ7" s="70" t="s">
+      <c r="BJ7" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="BK7" s="70"/>
-      <c r="BL7" s="70"/>
-      <c r="BM7" s="70"/>
+      <c r="BK7" s="66"/>
+      <c r="BL7" s="66"/>
+      <c r="BM7" s="66"/>
       <c r="BN7" s="40"/>
       <c r="BO7" s="40"/>
       <c r="BP7" s="40"/>
@@ -1550,80 +1550,80 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="66">
+      <c r="J8" s="69">
         <v>43416</v>
       </c>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
-      <c r="R8" s="66">
+      <c r="R8" s="69">
         <v>43417</v>
       </c>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="49"/>
       <c r="W8" s="49"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="49"/>
-      <c r="Z8" s="66">
+      <c r="Z8" s="69">
         <v>43418</v>
       </c>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="66">
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="69">
         <v>43419</v>
       </c>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="67"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="66">
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="70"/>
+      <c r="AL8" s="70"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="70"/>
+      <c r="AP8" s="69">
         <v>43420</v>
       </c>
-      <c r="AQ8" s="67"/>
-      <c r="AR8" s="67"/>
-      <c r="AS8" s="67"/>
-      <c r="AT8" s="67"/>
-      <c r="AU8" s="67"/>
-      <c r="AV8" s="67"/>
-      <c r="AW8" s="67"/>
-      <c r="AX8" s="68"/>
-      <c r="AY8" s="68"/>
-      <c r="AZ8" s="68"/>
-      <c r="BA8" s="68"/>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="68"/>
-      <c r="BD8" s="68"/>
-      <c r="BE8" s="68"/>
-      <c r="BF8" s="68"/>
-      <c r="BG8" s="68"/>
-      <c r="BH8" s="68"/>
-      <c r="BI8" s="68"/>
-      <c r="BJ8" s="68"/>
-      <c r="BK8" s="68"/>
-      <c r="BL8" s="68"/>
-      <c r="BM8" s="68"/>
-      <c r="BN8" s="71"/>
-      <c r="BO8" s="71"/>
-      <c r="BP8" s="71"/>
-      <c r="BQ8" s="71"/>
-      <c r="BR8" s="71"/>
-      <c r="BS8" s="71"/>
-      <c r="BT8" s="71"/>
-      <c r="BU8" s="71"/>
+      <c r="AQ8" s="70"/>
+      <c r="AR8" s="70"/>
+      <c r="AS8" s="70"/>
+      <c r="AT8" s="70"/>
+      <c r="AU8" s="70"/>
+      <c r="AV8" s="70"/>
+      <c r="AW8" s="70"/>
+      <c r="AX8" s="67"/>
+      <c r="AY8" s="67"/>
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="67"/>
+      <c r="BB8" s="67"/>
+      <c r="BC8" s="67"/>
+      <c r="BD8" s="67"/>
+      <c r="BE8" s="67"/>
+      <c r="BF8" s="67"/>
+      <c r="BG8" s="67"/>
+      <c r="BH8" s="67"/>
+      <c r="BI8" s="67"/>
+      <c r="BJ8" s="67"/>
+      <c r="BK8" s="67"/>
+      <c r="BL8" s="67"/>
+      <c r="BM8" s="67"/>
+      <c r="BN8" s="68"/>
+      <c r="BO8" s="68"/>
+      <c r="BP8" s="68"/>
+      <c r="BQ8" s="68"/>
+      <c r="BR8" s="68"/>
+      <c r="BS8" s="68"/>
+      <c r="BT8" s="68"/>
+      <c r="BU8" s="68"/>
     </row>
     <row r="9" spans="1:90" ht="15.75" customHeight="1">
       <c r="B9" s="3"/>
@@ -2131,21 +2131,23 @@
         <v>73</v>
       </c>
       <c r="C20" s="15">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E20" s="15">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F20" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="16">
-        <v>0</v>
-      </c>
-      <c r="H20" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:90" ht="18.899999999999999" customHeight="1">
@@ -2977,12 +2979,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="BJ6:BM6"/>
-    <mergeCell ref="BF8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="BN8:BQ8"/>
-    <mergeCell ref="BR8:BU8"/>
-    <mergeCell ref="BJ7:BM7"/>
     <mergeCell ref="AP8:AW8"/>
     <mergeCell ref="AX8:BA8"/>
     <mergeCell ref="BB8:BE8"/>
@@ -2991,6 +2987,12 @@
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="Z8:AG8"/>
     <mergeCell ref="AH8:AO8"/>
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="BF8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="BN8:BQ8"/>
+    <mergeCell ref="BR8:BU8"/>
+    <mergeCell ref="BJ7:BM7"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:CK39 J25:CK34 J11:CK23">
     <cfRule type="expression" dxfId="9" priority="3">

--- a/Dokumentation + Diagramme etc/Zeitplan.xlsx
+++ b/Dokumentation + Diagramme etc/Zeitplan.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>Geplant</t>
   </si>
@@ -265,9 +265,6 @@
     <t>Protokoll und Beschluss Anwendung</t>
   </si>
   <si>
-    <t>WebOberfläche</t>
-  </si>
-  <si>
     <t>Klassendiagramm</t>
   </si>
   <si>
@@ -305,6 +302,18 @@
   </si>
   <si>
     <t>Aktivitätsdiagramm</t>
+  </si>
+  <si>
+    <t>Ist-Soll-Vergleich</t>
+  </si>
+  <si>
+    <t>Tenbrock</t>
+  </si>
+  <si>
+    <t>Qualitätsmanagement</t>
+  </si>
+  <si>
+    <t>HTML Template</t>
   </si>
 </sst>
 </file>
@@ -899,23 +908,23 @@
     <xf numFmtId="9" fontId="16" fillId="14" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1325,8 +1334,8 @@
   </sheetPr>
   <dimension ref="A2:CL39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999"/>
@@ -1356,23 +1365,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:90" ht="54">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:90" ht="21" customHeight="1">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
       <c r="H3" s="20"/>
       <c r="J3" s="8" t="s">
         <v>11</v>
@@ -1427,12 +1436,12 @@
       </c>
     </row>
     <row r="4" spans="1:90" ht="18.75" customHeight="1">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="20"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
@@ -1469,12 +1478,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="BJ6" s="66" t="s">
+      <c r="BJ6" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="BK6" s="66"/>
-      <c r="BL6" s="66"/>
-      <c r="BM6" s="66"/>
+      <c r="BK6" s="70"/>
+      <c r="BL6" s="70"/>
+      <c r="BM6" s="70"/>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
@@ -1527,12 +1536,12 @@
       <c r="AE7" s="49"/>
       <c r="AF7" s="49"/>
       <c r="AG7" s="22"/>
-      <c r="BJ7" s="66" t="s">
+      <c r="BJ7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="BK7" s="66"/>
-      <c r="BL7" s="66"/>
-      <c r="BM7" s="66"/>
+      <c r="BK7" s="70"/>
+      <c r="BL7" s="70"/>
+      <c r="BM7" s="70"/>
       <c r="BN7" s="40"/>
       <c r="BO7" s="40"/>
       <c r="BP7" s="40"/>
@@ -1550,80 +1559,80 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="69">
+      <c r="J8" s="66">
         <v>43416</v>
       </c>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
-      <c r="R8" s="69">
+      <c r="R8" s="66">
         <v>43417</v>
       </c>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="49"/>
       <c r="W8" s="49"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="49"/>
-      <c r="Z8" s="69">
+      <c r="Z8" s="66">
         <v>43418</v>
       </c>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="70"/>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="69">
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="66">
         <v>43419</v>
       </c>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="70"/>
-      <c r="AN8" s="70"/>
-      <c r="AO8" s="70"/>
-      <c r="AP8" s="69">
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="67"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="66">
         <v>43420</v>
       </c>
-      <c r="AQ8" s="70"/>
-      <c r="AR8" s="70"/>
-      <c r="AS8" s="70"/>
-      <c r="AT8" s="70"/>
-      <c r="AU8" s="70"/>
-      <c r="AV8" s="70"/>
-      <c r="AW8" s="70"/>
-      <c r="AX8" s="67"/>
-      <c r="AY8" s="67"/>
-      <c r="AZ8" s="67"/>
-      <c r="BA8" s="67"/>
-      <c r="BB8" s="67"/>
-      <c r="BC8" s="67"/>
-      <c r="BD8" s="67"/>
-      <c r="BE8" s="67"/>
-      <c r="BF8" s="67"/>
-      <c r="BG8" s="67"/>
-      <c r="BH8" s="67"/>
-      <c r="BI8" s="67"/>
-      <c r="BJ8" s="67"/>
-      <c r="BK8" s="67"/>
-      <c r="BL8" s="67"/>
-      <c r="BM8" s="67"/>
-      <c r="BN8" s="68"/>
-      <c r="BO8" s="68"/>
-      <c r="BP8" s="68"/>
-      <c r="BQ8" s="68"/>
-      <c r="BR8" s="68"/>
-      <c r="BS8" s="68"/>
-      <c r="BT8" s="68"/>
-      <c r="BU8" s="68"/>
+      <c r="AQ8" s="67"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="67"/>
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="67"/>
+      <c r="AV8" s="67"/>
+      <c r="AW8" s="67"/>
+      <c r="AX8" s="68"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="68"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="68"/>
+      <c r="BC8" s="68"/>
+      <c r="BD8" s="68"/>
+      <c r="BE8" s="68"/>
+      <c r="BF8" s="68"/>
+      <c r="BG8" s="68"/>
+      <c r="BH8" s="68"/>
+      <c r="BI8" s="68"/>
+      <c r="BJ8" s="68"/>
+      <c r="BK8" s="68"/>
+      <c r="BL8" s="68"/>
+      <c r="BM8" s="68"/>
+      <c r="BN8" s="71"/>
+      <c r="BO8" s="71"/>
+      <c r="BP8" s="71"/>
+      <c r="BQ8" s="71"/>
+      <c r="BR8" s="71"/>
+      <c r="BS8" s="71"/>
+      <c r="BT8" s="71"/>
+      <c r="BU8" s="71"/>
     </row>
     <row r="9" spans="1:90" ht="15.75" customHeight="1">
       <c r="B9" s="3"/>
@@ -1978,7 +1987,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="15">
         <v>5</v>
@@ -2003,24 +2012,26 @@
         <v>29</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F15" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15" s="16">
         <v>0</v>
       </c>
-      <c r="H15" s="29"/>
+      <c r="H15" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:90" ht="18.899999999999999" customHeight="1">
@@ -2028,7 +2039,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="15">
         <v>13</v>
@@ -2053,7 +2064,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="15">
         <v>9</v>
@@ -2070,7 +2081,9 @@
       <c r="G17" s="16">
         <v>0.2</v>
       </c>
-      <c r="H17" s="64"/>
+      <c r="H17" s="64" t="s">
+        <v>58</v>
+      </c>
       <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:90" ht="18.899999999999999" customHeight="1">
@@ -2078,7 +2091,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="15">
         <v>5</v>
@@ -2095,7 +2108,9 @@
       <c r="G18" s="16">
         <v>0.2</v>
       </c>
-      <c r="H18" s="64"/>
+      <c r="H18" s="64" t="s">
+        <v>58</v>
+      </c>
       <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:90" ht="18.899999999999999" customHeight="1">
@@ -2103,7 +2118,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="17">
         <v>4</v>
@@ -2120,7 +2135,9 @@
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="29"/>
+      <c r="H19" s="29" t="s">
+        <v>74</v>
+      </c>
       <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:90" ht="18.899999999999999" customHeight="1">
@@ -2128,7 +2145,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="15">
         <v>9</v>
@@ -2154,46 +2171,54 @@
       <c r="A21" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="C21" s="15">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D21" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E21" s="15">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F21" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="16">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A22" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="C22" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22" s="15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E22" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F22" s="15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G22" s="16">
         <v>0</v>
       </c>
-      <c r="H22" s="29"/>
+      <c r="H22" s="29" t="s">
+        <v>74</v>
+      </c>
       <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:90" ht="18.899999999999999" customHeight="1">
@@ -2403,7 +2428,7 @@
         <v>48</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="15">
         <v>9</v>
@@ -2448,7 +2473,7 @@
         <v>49</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="15">
         <v>10</v>
@@ -2490,10 +2515,10 @@
     </row>
     <row r="28" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -2587,18 +2612,22 @@
         <v>50</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C30" s="15">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D30" s="15">
-        <v>5</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="E30" s="15">
+        <v>12</v>
+      </c>
+      <c r="F30" s="15">
+        <v>3</v>
+      </c>
       <c r="G30" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="64" t="s">
         <v>17</v>
@@ -2902,7 +2931,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="15">
         <v>30</v>
@@ -2923,7 +2952,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="15">
         <v>28</v>
@@ -2979,6 +3008,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="BF8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="BN8:BQ8"/>
+    <mergeCell ref="BR8:BU8"/>
+    <mergeCell ref="BJ7:BM7"/>
     <mergeCell ref="AP8:AW8"/>
     <mergeCell ref="AX8:BA8"/>
     <mergeCell ref="BB8:BE8"/>
@@ -2987,12 +3022,6 @@
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="Z8:AG8"/>
     <mergeCell ref="AH8:AO8"/>
-    <mergeCell ref="BJ6:BM6"/>
-    <mergeCell ref="BF8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="BN8:BQ8"/>
-    <mergeCell ref="BR8:BU8"/>
-    <mergeCell ref="BJ7:BM7"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:CK39 J25:CK34 J11:CK23">
     <cfRule type="expression" dxfId="9" priority="3">

--- a/Dokumentation + Diagramme etc/Zeitplan.xlsx
+++ b/Dokumentation + Diagramme etc/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11040"/>
+    <workbookView xWindow="-48" yWindow="48" windowWidth="11364" windowHeight="9648"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>Geplant</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>HTML Template</t>
+  </si>
+  <si>
+    <t>Paperprototype</t>
   </si>
 </sst>
 </file>
@@ -908,23 +911,23 @@
     <xf numFmtId="9" fontId="16" fillId="14" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1334,8 +1337,8 @@
   </sheetPr>
   <dimension ref="A2:CL39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999"/>
@@ -1365,23 +1368,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:90" ht="54">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:90" ht="21" customHeight="1">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="20"/>
       <c r="J3" s="8" t="s">
         <v>11</v>
@@ -1436,12 +1439,12 @@
       </c>
     </row>
     <row r="4" spans="1:90" ht="18.75" customHeight="1">
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="20"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
@@ -1478,12 +1481,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="BJ6" s="70" t="s">
+      <c r="BJ6" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="BK6" s="70"/>
-      <c r="BL6" s="70"/>
-      <c r="BM6" s="70"/>
+      <c r="BK6" s="66"/>
+      <c r="BL6" s="66"/>
+      <c r="BM6" s="66"/>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
@@ -1536,12 +1539,12 @@
       <c r="AE7" s="49"/>
       <c r="AF7" s="49"/>
       <c r="AG7" s="22"/>
-      <c r="BJ7" s="70" t="s">
+      <c r="BJ7" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="BK7" s="70"/>
-      <c r="BL7" s="70"/>
-      <c r="BM7" s="70"/>
+      <c r="BK7" s="66"/>
+      <c r="BL7" s="66"/>
+      <c r="BM7" s="66"/>
       <c r="BN7" s="40"/>
       <c r="BO7" s="40"/>
       <c r="BP7" s="40"/>
@@ -1559,80 +1562,80 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="66">
+      <c r="J8" s="69">
         <v>43416</v>
       </c>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
-      <c r="R8" s="66">
+      <c r="R8" s="69">
         <v>43417</v>
       </c>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="49"/>
       <c r="W8" s="49"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="49"/>
-      <c r="Z8" s="66">
+      <c r="Z8" s="69">
         <v>43418</v>
       </c>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="66">
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="69">
         <v>43419</v>
       </c>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="67"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="66">
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="70"/>
+      <c r="AL8" s="70"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="70"/>
+      <c r="AP8" s="69">
         <v>43420</v>
       </c>
-      <c r="AQ8" s="67"/>
-      <c r="AR8" s="67"/>
-      <c r="AS8" s="67"/>
-      <c r="AT8" s="67"/>
-      <c r="AU8" s="67"/>
-      <c r="AV8" s="67"/>
-      <c r="AW8" s="67"/>
-      <c r="AX8" s="68"/>
-      <c r="AY8" s="68"/>
-      <c r="AZ8" s="68"/>
-      <c r="BA8" s="68"/>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="68"/>
-      <c r="BD8" s="68"/>
-      <c r="BE8" s="68"/>
-      <c r="BF8" s="68"/>
-      <c r="BG8" s="68"/>
-      <c r="BH8" s="68"/>
-      <c r="BI8" s="68"/>
-      <c r="BJ8" s="68"/>
-      <c r="BK8" s="68"/>
-      <c r="BL8" s="68"/>
-      <c r="BM8" s="68"/>
-      <c r="BN8" s="71"/>
-      <c r="BO8" s="71"/>
-      <c r="BP8" s="71"/>
-      <c r="BQ8" s="71"/>
-      <c r="BR8" s="71"/>
-      <c r="BS8" s="71"/>
-      <c r="BT8" s="71"/>
-      <c r="BU8" s="71"/>
+      <c r="AQ8" s="70"/>
+      <c r="AR8" s="70"/>
+      <c r="AS8" s="70"/>
+      <c r="AT8" s="70"/>
+      <c r="AU8" s="70"/>
+      <c r="AV8" s="70"/>
+      <c r="AW8" s="70"/>
+      <c r="AX8" s="67"/>
+      <c r="AY8" s="67"/>
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="67"/>
+      <c r="BB8" s="67"/>
+      <c r="BC8" s="67"/>
+      <c r="BD8" s="67"/>
+      <c r="BE8" s="67"/>
+      <c r="BF8" s="67"/>
+      <c r="BG8" s="67"/>
+      <c r="BH8" s="67"/>
+      <c r="BI8" s="67"/>
+      <c r="BJ8" s="67"/>
+      <c r="BK8" s="67"/>
+      <c r="BL8" s="67"/>
+      <c r="BM8" s="67"/>
+      <c r="BN8" s="68"/>
+      <c r="BO8" s="68"/>
+      <c r="BP8" s="68"/>
+      <c r="BQ8" s="68"/>
+      <c r="BR8" s="68"/>
+      <c r="BS8" s="68"/>
+      <c r="BT8" s="68"/>
+      <c r="BU8" s="68"/>
     </row>
     <row r="9" spans="1:90" ht="15.75" customHeight="1">
       <c r="B9" s="3"/>
@@ -2027,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H15" s="29" t="s">
         <v>17</v>
@@ -2225,21 +2228,23 @@
       <c r="A23" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="C23" s="15">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D23" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="15">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F23" s="15">
+        <v>2</v>
+      </c>
+      <c r="G23" s="16">
         <v>1</v>
-      </c>
-      <c r="G23" s="16">
-        <v>0</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="30"/>
@@ -3008,12 +3013,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="BJ6:BM6"/>
-    <mergeCell ref="BF8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="BN8:BQ8"/>
-    <mergeCell ref="BR8:BU8"/>
-    <mergeCell ref="BJ7:BM7"/>
     <mergeCell ref="AP8:AW8"/>
     <mergeCell ref="AX8:BA8"/>
     <mergeCell ref="BB8:BE8"/>
@@ -3022,6 +3021,12 @@
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="Z8:AG8"/>
     <mergeCell ref="AH8:AO8"/>
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="BF8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="BN8:BQ8"/>
+    <mergeCell ref="BR8:BU8"/>
+    <mergeCell ref="BJ7:BM7"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:CK39 J25:CK34 J11:CK23">
     <cfRule type="expression" dxfId="9" priority="3">

--- a/Dokumentation + Diagramme etc/Zeitplan.xlsx
+++ b/Dokumentation + Diagramme etc/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="48" windowWidth="11364" windowHeight="9648"/>
+    <workbookView xWindow="1584" yWindow="-216" windowWidth="21480" windowHeight="9804"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
   <si>
     <t>Geplant</t>
   </si>
@@ -181,21 +181,6 @@
     <t>1.9</t>
   </si>
   <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -247,9 +232,6 @@
     <t>2.3.1</t>
   </si>
   <si>
-    <t>1.15</t>
-  </si>
-  <si>
     <t>Kaden</t>
   </si>
   <si>
@@ -265,15 +247,9 @@
     <t>Protokoll und Beschluss Anwendung</t>
   </si>
   <si>
-    <t>Klassendiagramm</t>
-  </si>
-  <si>
     <t>Use Case</t>
   </si>
   <si>
-    <t>Projektstrukturplan</t>
-  </si>
-  <si>
     <t>Kostenplan</t>
   </si>
   <si>
@@ -317,6 +293,54 @@
   </si>
   <si>
     <t>Paperprototype</t>
+  </si>
+  <si>
+    <t>Sequenzdiagramm</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Qualitätssicherung der Datenbank</t>
+  </si>
+  <si>
+    <t>Testdaten für die Datenbank</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>Projektstruckturplan</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>Seite erstellen</t>
+  </si>
+  <si>
+    <t>Webanwendung erstellen</t>
+  </si>
+  <si>
+    <t>Gollnick / Tenbrock</t>
+  </si>
+  <si>
+    <t>Nacharbeiten</t>
   </si>
 </sst>
 </file>
@@ -530,7 +554,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -689,6 +713,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -714,7 +747,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,23 +944,29 @@
     <xf numFmtId="9" fontId="16" fillId="14" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1335,16 +1374,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:CL39"/>
+  <dimension ref="A2:CL54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="4.5546875" style="41" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.21875" style="1" customWidth="1"/>
@@ -1368,23 +1407,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:90" ht="54">
-      <c r="B2" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="B2" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:90" ht="21" customHeight="1">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
       <c r="H3" s="20"/>
       <c r="J3" s="8" t="s">
         <v>11</v>
@@ -1439,12 +1478,12 @@
       </c>
     </row>
     <row r="4" spans="1:90" ht="18.75" customHeight="1">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="20"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
@@ -1481,12 +1520,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="BJ6" s="66" t="s">
+      <c r="BJ6" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="BK6" s="66"/>
-      <c r="BL6" s="66"/>
-      <c r="BM6" s="66"/>
+      <c r="BK6" s="70"/>
+      <c r="BL6" s="70"/>
+      <c r="BM6" s="70"/>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
@@ -1539,12 +1578,12 @@
       <c r="AE7" s="49"/>
       <c r="AF7" s="49"/>
       <c r="AG7" s="22"/>
-      <c r="BJ7" s="66" t="s">
+      <c r="BJ7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="BK7" s="66"/>
-      <c r="BL7" s="66"/>
-      <c r="BM7" s="66"/>
+      <c r="BK7" s="70"/>
+      <c r="BL7" s="70"/>
+      <c r="BM7" s="70"/>
       <c r="BN7" s="40"/>
       <c r="BO7" s="40"/>
       <c r="BP7" s="40"/>
@@ -1562,80 +1601,80 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="69">
+      <c r="J8" s="66">
         <v>43416</v>
       </c>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
-      <c r="R8" s="69">
+      <c r="R8" s="66">
         <v>43417</v>
       </c>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="49"/>
       <c r="W8" s="49"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="49"/>
-      <c r="Z8" s="69">
+      <c r="Z8" s="66">
         <v>43418</v>
       </c>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="70"/>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="69">
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="66">
         <v>43419</v>
       </c>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="70"/>
-      <c r="AN8" s="70"/>
-      <c r="AO8" s="70"/>
-      <c r="AP8" s="69">
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="67"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="66">
         <v>43420</v>
       </c>
-      <c r="AQ8" s="70"/>
-      <c r="AR8" s="70"/>
-      <c r="AS8" s="70"/>
-      <c r="AT8" s="70"/>
-      <c r="AU8" s="70"/>
-      <c r="AV8" s="70"/>
-      <c r="AW8" s="70"/>
-      <c r="AX8" s="67"/>
-      <c r="AY8" s="67"/>
-      <c r="AZ8" s="67"/>
-      <c r="BA8" s="67"/>
-      <c r="BB8" s="67"/>
-      <c r="BC8" s="67"/>
-      <c r="BD8" s="67"/>
-      <c r="BE8" s="67"/>
-      <c r="BF8" s="67"/>
-      <c r="BG8" s="67"/>
-      <c r="BH8" s="67"/>
-      <c r="BI8" s="67"/>
-      <c r="BJ8" s="67"/>
-      <c r="BK8" s="67"/>
-      <c r="BL8" s="67"/>
-      <c r="BM8" s="67"/>
-      <c r="BN8" s="68"/>
-      <c r="BO8" s="68"/>
-      <c r="BP8" s="68"/>
-      <c r="BQ8" s="68"/>
-      <c r="BR8" s="68"/>
-      <c r="BS8" s="68"/>
-      <c r="BT8" s="68"/>
-      <c r="BU8" s="68"/>
+      <c r="AQ8" s="67"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="67"/>
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="67"/>
+      <c r="AV8" s="67"/>
+      <c r="AW8" s="67"/>
+      <c r="AX8" s="68"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="68"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="68"/>
+      <c r="BC8" s="68"/>
+      <c r="BD8" s="68"/>
+      <c r="BE8" s="68"/>
+      <c r="BF8" s="68"/>
+      <c r="BG8" s="68"/>
+      <c r="BH8" s="68"/>
+      <c r="BI8" s="68"/>
+      <c r="BJ8" s="68"/>
+      <c r="BK8" s="68"/>
+      <c r="BL8" s="68"/>
+      <c r="BM8" s="68"/>
+      <c r="BN8" s="71"/>
+      <c r="BO8" s="71"/>
+      <c r="BP8" s="71"/>
+      <c r="BQ8" s="71"/>
+      <c r="BR8" s="71"/>
+      <c r="BS8" s="71"/>
+      <c r="BT8" s="71"/>
+      <c r="BU8" s="71"/>
     </row>
     <row r="9" spans="1:90" ht="15.75" customHeight="1">
       <c r="B9" s="3"/>
@@ -1942,19 +1981,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="15">
         <v>2</v>
       </c>
       <c r="F12" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="16">
         <v>1</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I12" s="30"/>
     </row>
@@ -1963,25 +2002,25 @@
         <v>27</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C13" s="15">
         <v>4</v>
       </c>
       <c r="D13" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="15">
         <v>4</v>
       </c>
       <c r="F13" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="16">
         <v>1</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I13" s="30"/>
     </row>
@@ -1990,255 +2029,339 @@
         <v>28</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="15">
-        <v>5</v>
+        <v>57</v>
+      </c>
+      <c r="C14" s="17">
+        <v>4</v>
       </c>
       <c r="D14" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G14" s="16">
-        <v>0</v>
-      </c>
-      <c r="H14" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>56</v>
       </c>
       <c r="C15" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F15" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>17</v>
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>52</v>
       </c>
       <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A16" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C16" s="15">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D16" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E16" s="15">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F16" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G16" s="16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="I16" s="30"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="48"/>
+      <c r="AV16" s="48"/>
+      <c r="AW16" s="48"/>
     </row>
     <row r="17" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A17" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="C17" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="H17" s="64" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="I17" s="30"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="48"/>
+      <c r="AO17" s="48"/>
+      <c r="AP17" s="48"/>
+      <c r="AQ17" s="48"/>
+      <c r="AV17" s="48"/>
+      <c r="AW17" s="48"/>
     </row>
     <row r="18" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>64</v>
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D18" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" s="15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F18" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18" s="16">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="64" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="17">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="C19" s="15">
+        <v>9</v>
       </c>
       <c r="D19" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E19" s="15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F19" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G19" s="16">
         <v>1</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C20" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="15">
         <v>2</v>
       </c>
       <c r="E20" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="16">
         <v>1</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C21" s="15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" s="15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F21" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" s="16">
         <v>1</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I21" s="30"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="48"/>
+      <c r="AQ21" s="48"/>
+      <c r="AV21" s="48"/>
+      <c r="AW21" s="48"/>
     </row>
     <row r="22" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A22" s="42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C22" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D22" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F22" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I22" s="30"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="48"/>
+      <c r="AO22" s="48"/>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="48"/>
+      <c r="AV22" s="48"/>
+      <c r="AW22" s="48"/>
     </row>
     <row r="23" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A23" s="42" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="15">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D23" s="15">
         <v>2</v>
       </c>
       <c r="E23" s="15">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F23" s="15">
         <v>2</v>
@@ -2246,532 +2369,398 @@
       <c r="G23" s="16">
         <v>1</v>
       </c>
-      <c r="H23" s="29"/>
+      <c r="H23" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="I23" s="30"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="Z23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
-      <c r="AJ23" s="47"/>
-      <c r="AO23" s="47"/>
-      <c r="AP23" s="47"/>
-      <c r="AQ23" s="47"/>
-      <c r="AV23" s="47"/>
-      <c r="AW23" s="47"/>
-    </row>
-    <row r="24" spans="1:90" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="27" t="s">
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="48"/>
+      <c r="AO23" s="48"/>
+      <c r="AP23" s="48"/>
+      <c r="AQ23" s="48"/>
+      <c r="AV23" s="48"/>
+      <c r="AW23" s="48"/>
+    </row>
+    <row r="24" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A24" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="15">
         <v>19</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="28"/>
-      <c r="AR24" s="28"/>
-      <c r="AS24" s="28"/>
-      <c r="AT24" s="28"/>
-      <c r="AU24" s="28"/>
-      <c r="AV24" s="28"/>
-      <c r="AW24" s="28"/>
-      <c r="AX24" s="28"/>
-      <c r="AY24" s="28"/>
-      <c r="AZ24" s="28"/>
-      <c r="BA24" s="28"/>
-      <c r="BB24" s="28"/>
-      <c r="BC24" s="28"/>
-      <c r="BD24" s="28"/>
-      <c r="BE24" s="28"/>
-      <c r="BF24" s="28"/>
-      <c r="BG24" s="28"/>
-      <c r="BH24" s="28"/>
-      <c r="BI24" s="28"/>
-      <c r="BJ24" s="28"/>
-      <c r="BK24" s="28"/>
-      <c r="BL24" s="28"/>
-      <c r="BM24" s="28"/>
-      <c r="BN24" s="28"/>
-      <c r="BO24" s="28"/>
-      <c r="BP24" s="28"/>
-      <c r="BQ24" s="28"/>
-      <c r="BR24" s="28"/>
-      <c r="BS24" s="28"/>
-      <c r="BT24" s="28"/>
-      <c r="BU24" s="28"/>
-      <c r="BV24" s="28"/>
-      <c r="BW24" s="28"/>
-      <c r="BX24" s="28"/>
-      <c r="BY24" s="28"/>
-      <c r="BZ24" s="28"/>
-      <c r="CA24" s="28"/>
-      <c r="CB24" s="28"/>
-      <c r="CC24" s="28"/>
-      <c r="CD24" s="28"/>
-      <c r="CE24" s="28"/>
-      <c r="CF24" s="28"/>
-      <c r="CG24" s="28"/>
-      <c r="CH24" s="28"/>
-      <c r="CI24" s="28"/>
-      <c r="CJ24" s="28"/>
-      <c r="CK24" s="28"/>
-      <c r="CL24" s="25"/>
-    </row>
-    <row r="25" spans="1:90" s="57" customFormat="1" ht="18.899999999999999" customHeight="1">
-      <c r="A25" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="52">
-        <v>21</v>
-      </c>
-      <c r="D25" s="52">
-        <v>3</v>
-      </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53">
-        <v>0</v>
-      </c>
-      <c r="H25" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="55"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="56"/>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="56"/>
-      <c r="AN25" s="56"/>
-      <c r="AO25" s="56"/>
-      <c r="AP25" s="56"/>
-      <c r="AQ25" s="56"/>
-      <c r="AR25" s="56"/>
-      <c r="AS25" s="56"/>
-      <c r="AT25" s="56"/>
-      <c r="AU25" s="56"/>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56"/>
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15">
+        <v>19</v>
+      </c>
+      <c r="F24" s="15">
+        <v>1</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1</v>
+      </c>
+      <c r="H24" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="48"/>
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="48"/>
+      <c r="AJ24" s="48"/>
+      <c r="AO24" s="48"/>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="48"/>
+      <c r="AV24" s="48"/>
+      <c r="AW24" s="48"/>
+    </row>
+    <row r="25" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A25" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="15">
+        <v>19</v>
+      </c>
+      <c r="D25" s="15">
+        <v>6</v>
+      </c>
+      <c r="E25" s="15">
+        <v>19</v>
+      </c>
+      <c r="F25" s="15">
+        <v>5</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1</v>
+      </c>
+      <c r="H25" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="48"/>
+      <c r="AV25" s="48"/>
+      <c r="AW25" s="48"/>
     </row>
     <row r="26" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="15">
-        <v>9</v>
-      </c>
-      <c r="D26" s="15">
-        <v>1</v>
-      </c>
-      <c r="E26" s="15">
-        <v>9</v>
-      </c>
-      <c r="F26" s="15">
-        <v>1</v>
-      </c>
-      <c r="G26" s="16">
-        <v>1</v>
-      </c>
-      <c r="H26" s="29"/>
+        <v>79</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="72"/>
       <c r="I26" s="30"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AO26" s="46"/>
-      <c r="AP26" s="46"/>
-      <c r="AQ26" s="46"/>
-      <c r="AV26" s="46"/>
-      <c r="AW26" s="46"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
+      <c r="AO26" s="48"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="48"/>
+      <c r="AV26" s="48"/>
+      <c r="AW26" s="48"/>
     </row>
     <row r="27" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="15">
-        <v>10</v>
-      </c>
-      <c r="D27" s="15">
-        <v>1</v>
-      </c>
-      <c r="E27" s="15">
-        <v>10</v>
-      </c>
-      <c r="F27" s="15">
-        <v>1</v>
-      </c>
-      <c r="G27" s="16">
-        <v>1</v>
-      </c>
-      <c r="H27" s="29"/>
+        <v>80</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="72"/>
       <c r="I27" s="30"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="46"/>
-      <c r="AG27" s="46"/>
-      <c r="AH27" s="46"/>
-      <c r="AI27" s="46"/>
-      <c r="AJ27" s="46"/>
-      <c r="AO27" s="46"/>
-      <c r="AP27" s="46"/>
-      <c r="AQ27" s="46"/>
-      <c r="AV27" s="46"/>
-      <c r="AW27" s="46"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="48"/>
+      <c r="AG27" s="48"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="48"/>
+      <c r="AJ27" s="48"/>
+      <c r="AO27" s="48"/>
+      <c r="AP27" s="48"/>
+      <c r="AQ27" s="48"/>
+      <c r="AV27" s="48"/>
+      <c r="AW27" s="48"/>
     </row>
     <row r="28" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="29"/>
+        <v>81</v>
+      </c>
+      <c r="H28" s="73"/>
       <c r="I28" s="30"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="48"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="48"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AP28" s="48"/>
-      <c r="AQ28" s="48"/>
-      <c r="AV28" s="48"/>
-      <c r="AW28" s="48"/>
-    </row>
-    <row r="29" spans="1:90" s="57" customFormat="1" ht="18.899999999999999" customHeight="1">
-      <c r="A29" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52">
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="47"/>
+      <c r="AO28" s="47"/>
+      <c r="AP28" s="47"/>
+      <c r="AQ28" s="47"/>
+      <c r="AV28" s="47"/>
+      <c r="AW28" s="47"/>
+    </row>
+    <row r="31" spans="1:90" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A31" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="28"/>
+      <c r="AK31" s="28"/>
+      <c r="AL31" s="28"/>
+      <c r="AM31" s="28"/>
+      <c r="AN31" s="28"/>
+      <c r="AO31" s="28"/>
+      <c r="AP31" s="28"/>
+      <c r="AQ31" s="28"/>
+      <c r="AR31" s="28"/>
+      <c r="AS31" s="28"/>
+      <c r="AT31" s="28"/>
+      <c r="AU31" s="28"/>
+      <c r="AV31" s="28"/>
+      <c r="AW31" s="28"/>
+      <c r="AX31" s="28"/>
+      <c r="AY31" s="28"/>
+      <c r="AZ31" s="28"/>
+      <c r="BA31" s="28"/>
+      <c r="BB31" s="28"/>
+      <c r="BC31" s="28"/>
+      <c r="BD31" s="28"/>
+      <c r="BE31" s="28"/>
+      <c r="BF31" s="28"/>
+      <c r="BG31" s="28"/>
+      <c r="BH31" s="28"/>
+      <c r="BI31" s="28"/>
+      <c r="BJ31" s="28"/>
+      <c r="BK31" s="28"/>
+      <c r="BL31" s="28"/>
+      <c r="BM31" s="28"/>
+      <c r="BN31" s="28"/>
+      <c r="BO31" s="28"/>
+      <c r="BP31" s="28"/>
+      <c r="BQ31" s="28"/>
+      <c r="BR31" s="28"/>
+      <c r="BS31" s="28"/>
+      <c r="BT31" s="28"/>
+      <c r="BU31" s="28"/>
+      <c r="BV31" s="28"/>
+      <c r="BW31" s="28"/>
+      <c r="BX31" s="28"/>
+      <c r="BY31" s="28"/>
+      <c r="BZ31" s="28"/>
+      <c r="CA31" s="28"/>
+      <c r="CB31" s="28"/>
+      <c r="CC31" s="28"/>
+      <c r="CD31" s="28"/>
+      <c r="CE31" s="28"/>
+      <c r="CF31" s="28"/>
+      <c r="CG31" s="28"/>
+      <c r="CH31" s="28"/>
+      <c r="CI31" s="28"/>
+      <c r="CJ31" s="28"/>
+      <c r="CK31" s="28"/>
+      <c r="CL31" s="25"/>
+    </row>
+    <row r="32" spans="1:90" s="57" customFormat="1" ht="18.899999999999999" customHeight="1">
+      <c r="A32" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="52">
         <v>21</v>
       </c>
-      <c r="D29" s="52">
-        <v>4</v>
-      </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53">
+      <c r="D32" s="52">
+        <v>3</v>
+      </c>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="53">
         <v>0</v>
       </c>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="56"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="56"/>
-      <c r="AF29" s="56"/>
-      <c r="AG29" s="56"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="56"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="56"/>
-      <c r="AL29" s="56"/>
-      <c r="AM29" s="56"/>
-      <c r="AN29" s="56"/>
-      <c r="AO29" s="56"/>
-      <c r="AP29" s="56"/>
-      <c r="AQ29" s="56"/>
-      <c r="AR29" s="56"/>
-      <c r="AS29" s="56"/>
-      <c r="AT29" s="56"/>
-      <c r="AU29" s="56"/>
-      <c r="AV29" s="56"/>
-      <c r="AW29" s="56"/>
-    </row>
-    <row r="30" spans="1:90" ht="18.899999999999999" customHeight="1">
-      <c r="A30" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="15">
-        <v>12</v>
-      </c>
-      <c r="D30" s="15">
-        <v>3</v>
-      </c>
-      <c r="E30" s="15">
-        <v>12</v>
-      </c>
-      <c r="F30" s="15">
-        <v>3</v>
-      </c>
-      <c r="G30" s="16">
-        <v>1</v>
-      </c>
-      <c r="H30" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="46"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="46"/>
-      <c r="AI30" s="46"/>
-      <c r="AJ30" s="46"/>
-      <c r="AO30" s="46"/>
-      <c r="AP30" s="46"/>
-      <c r="AQ30" s="46"/>
-      <c r="AV30" s="46"/>
-      <c r="AW30" s="46"/>
-    </row>
-    <row r="31" spans="1:90" ht="18.899999999999999" customHeight="1">
-      <c r="A31" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15">
-        <v>24</v>
-      </c>
-      <c r="D31" s="15">
-        <v>2</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16">
-        <v>0</v>
-      </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="Z31" s="47"/>
-      <c r="AC31" s="47"/>
-      <c r="AD31" s="47"/>
-      <c r="AG31" s="47"/>
-      <c r="AH31" s="47"/>
-      <c r="AI31" s="47"/>
-      <c r="AJ31" s="47"/>
-      <c r="AO31" s="47"/>
-      <c r="AP31" s="47"/>
-      <c r="AQ31" s="47"/>
-      <c r="AV31" s="47"/>
-      <c r="AW31" s="47"/>
-    </row>
-    <row r="32" spans="1:90" s="26" customFormat="1" ht="18.899999999999999" customHeight="1">
-      <c r="A32" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="59">
-        <v>21</v>
-      </c>
-      <c r="D32" s="59">
-        <v>8</v>
-      </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="60">
-        <v>0</v>
-      </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AD32" s="25"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="25"/>
-      <c r="AG32" s="25"/>
-      <c r="AH32" s="25"/>
-      <c r="AI32" s="25"/>
-      <c r="AJ32" s="25"/>
-      <c r="AK32" s="25"/>
-      <c r="AL32" s="25"/>
-      <c r="AM32" s="25"/>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="25"/>
-      <c r="AP32" s="25"/>
-      <c r="AQ32" s="25"/>
-      <c r="AR32" s="25"/>
-      <c r="AS32" s="25"/>
-      <c r="AT32" s="25"/>
-      <c r="AU32" s="25"/>
-      <c r="AV32" s="25"/>
-      <c r="AW32" s="25"/>
+      <c r="H32" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="56"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="56"/>
+      <c r="AN32" s="56"/>
+      <c r="AO32" s="56"/>
+      <c r="AP32" s="56"/>
+      <c r="AQ32" s="56"/>
+      <c r="AR32" s="56"/>
+      <c r="AS32" s="56"/>
+      <c r="AT32" s="56"/>
+      <c r="AU32" s="56"/>
+      <c r="AV32" s="56"/>
+      <c r="AW32" s="56"/>
     </row>
     <row r="33" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A33" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="C33" s="15">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D33" s="15">
-        <v>5</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="15">
+        <v>9</v>
+      </c>
+      <c r="F33" s="15">
+        <v>1</v>
+      </c>
       <c r="G33" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="29"/>
       <c r="I33" s="30"/>
@@ -2798,221 +2787,623 @@
     </row>
     <row r="34" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A34" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="C34" s="15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D34" s="15">
-        <v>5</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="E34" s="15">
+        <v>10</v>
+      </c>
+      <c r="F34" s="15">
+        <v>1</v>
+      </c>
       <c r="G34" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="29"/>
       <c r="I34" s="30"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="Z34" s="47"/>
-      <c r="AC34" s="47"/>
-      <c r="AD34" s="47"/>
-      <c r="AG34" s="47"/>
-      <c r="AH34" s="47"/>
-      <c r="AI34" s="47"/>
-      <c r="AJ34" s="47"/>
-      <c r="AO34" s="47"/>
-      <c r="AP34" s="47"/>
-      <c r="AQ34" s="47"/>
-      <c r="AV34" s="47"/>
-      <c r="AW34" s="47"/>
-    </row>
-    <row r="35" spans="1:90" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="28"/>
-      <c r="AH35" s="28"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="28"/>
-      <c r="AK35" s="28"/>
-      <c r="AL35" s="28"/>
-      <c r="AM35" s="28"/>
-      <c r="AN35" s="28"/>
-      <c r="AO35" s="28"/>
-      <c r="AP35" s="28"/>
-      <c r="AQ35" s="28"/>
-      <c r="AR35" s="28"/>
-      <c r="AS35" s="28"/>
-      <c r="AT35" s="28"/>
-      <c r="AU35" s="28"/>
-      <c r="AV35" s="28"/>
-      <c r="AW35" s="28"/>
-      <c r="AX35" s="28"/>
-      <c r="AY35" s="28"/>
-      <c r="AZ35" s="28"/>
-      <c r="BA35" s="28"/>
-      <c r="BB35" s="28"/>
-      <c r="BC35" s="28"/>
-      <c r="BD35" s="28"/>
-      <c r="BE35" s="28"/>
-      <c r="BF35" s="28"/>
-      <c r="BG35" s="28"/>
-      <c r="BH35" s="28"/>
-      <c r="BI35" s="28"/>
-      <c r="BJ35" s="28"/>
-      <c r="BK35" s="28"/>
-      <c r="BL35" s="28"/>
-      <c r="BM35" s="28"/>
-      <c r="BN35" s="28"/>
-      <c r="BO35" s="28"/>
-      <c r="BP35" s="28"/>
-      <c r="BQ35" s="28"/>
-      <c r="BR35" s="28"/>
-      <c r="BS35" s="28"/>
-      <c r="BT35" s="28"/>
-      <c r="BU35" s="28"/>
-      <c r="BV35" s="28"/>
-      <c r="BW35" s="28"/>
-      <c r="BX35" s="28"/>
-      <c r="BY35" s="28"/>
-      <c r="BZ35" s="28"/>
-      <c r="CA35" s="28"/>
-      <c r="CB35" s="28"/>
-      <c r="CC35" s="28"/>
-      <c r="CD35" s="28"/>
-      <c r="CE35" s="28"/>
-      <c r="CF35" s="28"/>
-      <c r="CG35" s="28"/>
-      <c r="CH35" s="28"/>
-      <c r="CI35" s="28"/>
-      <c r="CJ35" s="28"/>
-      <c r="CK35" s="28"/>
-      <c r="CL35" s="25"/>
-    </row>
-    <row r="36" spans="1:90" ht="18.899999999999999" customHeight="1">
-      <c r="A36" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="15">
-        <v>30</v>
-      </c>
-      <c r="D36" s="15">
-        <v>3</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="16">
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="Z34" s="46"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="46"/>
+      <c r="AG34" s="46"/>
+      <c r="AH34" s="46"/>
+      <c r="AI34" s="46"/>
+      <c r="AJ34" s="46"/>
+      <c r="AO34" s="46"/>
+      <c r="AP34" s="46"/>
+      <c r="AQ34" s="46"/>
+      <c r="AV34" s="46"/>
+      <c r="AW34" s="46"/>
+    </row>
+    <row r="35" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A35" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="15">
+        <v>19</v>
+      </c>
+      <c r="D35" s="15">
+        <v>2</v>
+      </c>
+      <c r="E35" s="15">
+        <v>19</v>
+      </c>
+      <c r="F35" s="15">
+        <v>2</v>
+      </c>
+      <c r="G35" s="16">
         <v>0</v>
       </c>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="48"/>
+      <c r="AG35" s="48"/>
+      <c r="AH35" s="48"/>
+      <c r="AI35" s="48"/>
+      <c r="AJ35" s="48"/>
+      <c r="AO35" s="48"/>
+      <c r="AP35" s="48"/>
+      <c r="AQ35" s="48"/>
+      <c r="AV35" s="48"/>
+      <c r="AW35" s="48"/>
+    </row>
+    <row r="36" spans="1:90" s="57" customFormat="1" ht="18.899999999999999" customHeight="1">
+      <c r="A36" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52">
+        <v>21</v>
+      </c>
+      <c r="D36" s="52">
+        <v>4</v>
+      </c>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53">
+        <v>0</v>
+      </c>
+      <c r="H36" s="54"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="56"/>
+      <c r="AC36" s="56"/>
+      <c r="AD36" s="56"/>
+      <c r="AE36" s="56"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56"/>
+      <c r="AJ36" s="56"/>
+      <c r="AK36" s="56"/>
+      <c r="AL36" s="56"/>
+      <c r="AM36" s="56"/>
+      <c r="AN36" s="56"/>
+      <c r="AO36" s="56"/>
+      <c r="AP36" s="56"/>
+      <c r="AQ36" s="56"/>
+      <c r="AR36" s="56"/>
+      <c r="AS36" s="56"/>
+      <c r="AT36" s="56"/>
+      <c r="AU36" s="56"/>
+      <c r="AV36" s="56"/>
+      <c r="AW36" s="56"/>
     </row>
     <row r="37" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>67</v>
+      <c r="B37" s="63" t="s">
+        <v>68</v>
       </c>
       <c r="C37" s="15">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D37" s="15">
         <v>3</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="E37" s="15">
+        <v>12</v>
+      </c>
+      <c r="F37" s="15">
+        <v>3</v>
+      </c>
       <c r="G37" s="16">
-        <v>0</v>
-      </c>
-      <c r="H37" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="64" t="s">
+        <v>17</v>
+      </c>
       <c r="I37" s="30"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="46"/>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AO37" s="46"/>
+      <c r="AP37" s="46"/>
+      <c r="AQ37" s="46"/>
+      <c r="AV37" s="46"/>
+      <c r="AW37" s="46"/>
     </row>
     <row r="38" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="14"/>
+      <c r="B38" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="C38" s="15">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D38" s="15">
-        <v>3</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="E38" s="15">
+        <v>20</v>
+      </c>
+      <c r="F38" s="15">
+        <v>13</v>
+      </c>
       <c r="G38" s="16">
         <v>0</v>
       </c>
-      <c r="H38" s="29"/>
+      <c r="H38" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="I38" s="30"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="47"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
+      <c r="AQ38" s="47"/>
+      <c r="AV38" s="47"/>
+      <c r="AW38" s="47"/>
     </row>
     <row r="39" spans="1:90" ht="18.899999999999999" customHeight="1">
-      <c r="A39" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15">
-        <v>31</v>
-      </c>
-      <c r="D39" s="15">
-        <v>2</v>
-      </c>
+      <c r="A39" s="42"/>
+      <c r="B39" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="16">
+      <c r="G39" s="16"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="Z39" s="48"/>
+      <c r="AC39" s="48"/>
+      <c r="AD39" s="48"/>
+      <c r="AG39" s="48"/>
+      <c r="AH39" s="48"/>
+      <c r="AI39" s="48"/>
+      <c r="AJ39" s="48"/>
+      <c r="AO39" s="48"/>
+      <c r="AP39" s="48"/>
+      <c r="AQ39" s="48"/>
+      <c r="AV39" s="48"/>
+      <c r="AW39" s="48"/>
+    </row>
+    <row r="40" spans="1:90" s="26" customFormat="1" ht="18.899999999999999" customHeight="1">
+      <c r="A40" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="58"/>
+      <c r="C40" s="59">
+        <v>21</v>
+      </c>
+      <c r="D40" s="59">
+        <v>8</v>
+      </c>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="60">
         <v>0</v>
       </c>
-      <c r="H39" s="33"/>
-      <c r="I39" s="34"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="25"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="25"/>
+      <c r="AI40" s="25"/>
+      <c r="AJ40" s="25"/>
+      <c r="AK40" s="25"/>
+      <c r="AL40" s="25"/>
+      <c r="AM40" s="25"/>
+      <c r="AN40" s="25"/>
+      <c r="AO40" s="25"/>
+      <c r="AP40" s="25"/>
+      <c r="AQ40" s="25"/>
+      <c r="AR40" s="25"/>
+      <c r="AS40" s="25"/>
+      <c r="AT40" s="25"/>
+      <c r="AU40" s="25"/>
+      <c r="AV40" s="25"/>
+      <c r="AW40" s="25"/>
+    </row>
+    <row r="41" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A41" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15">
+        <v>21</v>
+      </c>
+      <c r="D41" s="15">
+        <v>5</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="16">
+        <v>0</v>
+      </c>
+      <c r="H41" s="29"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="Z41" s="46"/>
+      <c r="AC41" s="46"/>
+      <c r="AD41" s="46"/>
+      <c r="AG41" s="46"/>
+      <c r="AH41" s="46"/>
+      <c r="AI41" s="46"/>
+      <c r="AJ41" s="46"/>
+      <c r="AO41" s="46"/>
+      <c r="AP41" s="46"/>
+      <c r="AQ41" s="46"/>
+      <c r="AV41" s="46"/>
+      <c r="AW41" s="46"/>
+    </row>
+    <row r="42" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A42" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15">
+        <v>25</v>
+      </c>
+      <c r="D42" s="15">
+        <v>5</v>
+      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="Z42" s="47"/>
+      <c r="AC42" s="47"/>
+      <c r="AD42" s="47"/>
+      <c r="AG42" s="47"/>
+      <c r="AH42" s="47"/>
+      <c r="AI42" s="47"/>
+      <c r="AJ42" s="47"/>
+      <c r="AO42" s="47"/>
+      <c r="AP42" s="47"/>
+      <c r="AQ42" s="47"/>
+      <c r="AV42" s="47"/>
+      <c r="AW42" s="47"/>
+    </row>
+    <row r="43" spans="1:90" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
+      <c r="AF43" s="28"/>
+      <c r="AG43" s="28"/>
+      <c r="AH43" s="28"/>
+      <c r="AI43" s="28"/>
+      <c r="AJ43" s="28"/>
+      <c r="AK43" s="28"/>
+      <c r="AL43" s="28"/>
+      <c r="AM43" s="28"/>
+      <c r="AN43" s="28"/>
+      <c r="AO43" s="28"/>
+      <c r="AP43" s="28"/>
+      <c r="AQ43" s="28"/>
+      <c r="AR43" s="28"/>
+      <c r="AS43" s="28"/>
+      <c r="AT43" s="28"/>
+      <c r="AU43" s="28"/>
+      <c r="AV43" s="28"/>
+      <c r="AW43" s="28"/>
+      <c r="AX43" s="28"/>
+      <c r="AY43" s="28"/>
+      <c r="AZ43" s="28"/>
+      <c r="BA43" s="28"/>
+      <c r="BB43" s="28"/>
+      <c r="BC43" s="28"/>
+      <c r="BD43" s="28"/>
+      <c r="BE43" s="28"/>
+      <c r="BF43" s="28"/>
+      <c r="BG43" s="28"/>
+      <c r="BH43" s="28"/>
+      <c r="BI43" s="28"/>
+      <c r="BJ43" s="28"/>
+      <c r="BK43" s="28"/>
+      <c r="BL43" s="28"/>
+      <c r="BM43" s="28"/>
+      <c r="BN43" s="28"/>
+      <c r="BO43" s="28"/>
+      <c r="BP43" s="28"/>
+      <c r="BQ43" s="28"/>
+      <c r="BR43" s="28"/>
+      <c r="BS43" s="28"/>
+      <c r="BT43" s="28"/>
+      <c r="BU43" s="28"/>
+      <c r="BV43" s="28"/>
+      <c r="BW43" s="28"/>
+      <c r="BX43" s="28"/>
+      <c r="BY43" s="28"/>
+      <c r="BZ43" s="28"/>
+      <c r="CA43" s="28"/>
+      <c r="CB43" s="28"/>
+      <c r="CC43" s="28"/>
+      <c r="CD43" s="28"/>
+      <c r="CE43" s="28"/>
+      <c r="CF43" s="28"/>
+      <c r="CG43" s="28"/>
+      <c r="CH43" s="28"/>
+      <c r="CI43" s="28"/>
+      <c r="CJ43" s="28"/>
+      <c r="CK43" s="28"/>
+      <c r="CL43" s="25"/>
+    </row>
+    <row r="44" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A44" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="15">
+        <v>21</v>
+      </c>
+      <c r="D44" s="15">
+        <v>3</v>
+      </c>
+      <c r="E44" s="15">
+        <v>21</v>
+      </c>
+      <c r="F44" s="15">
+        <v>3</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="30"/>
+    </row>
+    <row r="45" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A45" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="15">
+        <v>22</v>
+      </c>
+      <c r="D45" s="15">
+        <v>11</v>
+      </c>
+      <c r="E45" s="15">
+        <v>22</v>
+      </c>
+      <c r="F45" s="15">
+        <v>11</v>
+      </c>
+      <c r="G45" s="16">
+        <v>0</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A46" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15">
+        <v>28</v>
+      </c>
+      <c r="D46" s="15">
+        <v>3</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16">
+        <v>0</v>
+      </c>
+      <c r="H46" s="29"/>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A47" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15">
+        <v>31</v>
+      </c>
+      <c r="D47" s="15">
+        <v>2</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16">
+        <v>0</v>
+      </c>
+      <c r="H47" s="33"/>
+      <c r="I47" s="34"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="48" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="BF8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="BN8:BQ8"/>
+    <mergeCell ref="BR8:BU8"/>
+    <mergeCell ref="BJ7:BM7"/>
     <mergeCell ref="AP8:AW8"/>
     <mergeCell ref="AX8:BA8"/>
     <mergeCell ref="BB8:BE8"/>
@@ -3021,14 +3412,8 @@
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="Z8:AG8"/>
     <mergeCell ref="AH8:AO8"/>
-    <mergeCell ref="BJ6:BM6"/>
-    <mergeCell ref="BF8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="BN8:BQ8"/>
-    <mergeCell ref="BR8:BU8"/>
-    <mergeCell ref="BJ7:BM7"/>
   </mergeCells>
-  <conditionalFormatting sqref="J36:CK39 J25:CK34 J11:CK23">
+  <conditionalFormatting sqref="J44:CK47 J32:CK42 J11:CK28">
     <cfRule type="expression" dxfId="9" priority="3">
       <formula>ProzentAbgeschlossen</formula>
     </cfRule>
@@ -3054,12 +3439,12 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:CK40">
+  <conditionalFormatting sqref="B48:CK48">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:CK10 J24:CK24 J35:CK35">
+  <conditionalFormatting sqref="J9:CK10 J31:CK31 J43:CK43">
     <cfRule type="expression" dxfId="0" priority="10">
       <formula>J$9=Ausgewählter_Zeitraum</formula>
     </cfRule>

--- a/Dokumentation + Diagramme etc/Zeitplan.xlsx
+++ b/Dokumentation + Diagramme etc/Zeitplan.xlsx
@@ -265,9 +265,6 @@
     <t>Dokumentationserstellung</t>
   </si>
   <si>
-    <t>Diragramm</t>
-  </si>
-  <si>
     <t>Anlegen</t>
   </si>
   <si>
@@ -341,6 +338,9 @@
   </si>
   <si>
     <t>Nacharbeiten</t>
+  </si>
+  <si>
+    <t>ERD</t>
   </si>
 </sst>
 </file>
@@ -944,29 +944,29 @@
     <xf numFmtId="9" fontId="16" fillId="14" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1376,8 +1376,8 @@
   </sheetPr>
   <dimension ref="A2:CL54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999"/>
@@ -1407,23 +1407,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:90" ht="54">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:90" ht="21" customHeight="1">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="20"/>
       <c r="J3" s="8" t="s">
         <v>11</v>
@@ -1478,12 +1478,12 @@
       </c>
     </row>
     <row r="4" spans="1:90" ht="18.75" customHeight="1">
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="20"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
@@ -1520,12 +1520,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="BJ6" s="70" t="s">
+      <c r="BJ6" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="BK6" s="70"/>
-      <c r="BL6" s="70"/>
-      <c r="BM6" s="70"/>
+      <c r="BK6" s="68"/>
+      <c r="BL6" s="68"/>
+      <c r="BM6" s="68"/>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
@@ -1578,12 +1578,12 @@
       <c r="AE7" s="49"/>
       <c r="AF7" s="49"/>
       <c r="AG7" s="22"/>
-      <c r="BJ7" s="70" t="s">
+      <c r="BJ7" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="BK7" s="70"/>
-      <c r="BL7" s="70"/>
-      <c r="BM7" s="70"/>
+      <c r="BK7" s="68"/>
+      <c r="BL7" s="68"/>
+      <c r="BM7" s="68"/>
       <c r="BN7" s="40"/>
       <c r="BO7" s="40"/>
       <c r="BP7" s="40"/>
@@ -1601,80 +1601,80 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="66">
+      <c r="J8" s="71">
         <v>43416</v>
       </c>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
-      <c r="R8" s="66">
+      <c r="R8" s="71">
         <v>43417</v>
       </c>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="49"/>
       <c r="W8" s="49"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="49"/>
-      <c r="Z8" s="66">
+      <c r="Z8" s="71">
         <v>43418</v>
       </c>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="66">
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="71">
         <v>43419</v>
       </c>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="67"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="66">
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="71">
         <v>43420</v>
       </c>
-      <c r="AQ8" s="67"/>
-      <c r="AR8" s="67"/>
-      <c r="AS8" s="67"/>
-      <c r="AT8" s="67"/>
-      <c r="AU8" s="67"/>
-      <c r="AV8" s="67"/>
-      <c r="AW8" s="67"/>
-      <c r="AX8" s="68"/>
-      <c r="AY8" s="68"/>
-      <c r="AZ8" s="68"/>
-      <c r="BA8" s="68"/>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="68"/>
-      <c r="BD8" s="68"/>
-      <c r="BE8" s="68"/>
-      <c r="BF8" s="68"/>
-      <c r="BG8" s="68"/>
-      <c r="BH8" s="68"/>
-      <c r="BI8" s="68"/>
-      <c r="BJ8" s="68"/>
-      <c r="BK8" s="68"/>
-      <c r="BL8" s="68"/>
-      <c r="BM8" s="68"/>
-      <c r="BN8" s="71"/>
-      <c r="BO8" s="71"/>
-      <c r="BP8" s="71"/>
-      <c r="BQ8" s="71"/>
-      <c r="BR8" s="71"/>
-      <c r="BS8" s="71"/>
-      <c r="BT8" s="71"/>
-      <c r="BU8" s="71"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="72"/>
+      <c r="AU8" s="72"/>
+      <c r="AV8" s="72"/>
+      <c r="AW8" s="72"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="69"/>
+      <c r="BC8" s="69"/>
+      <c r="BD8" s="69"/>
+      <c r="BE8" s="69"/>
+      <c r="BF8" s="69"/>
+      <c r="BG8" s="69"/>
+      <c r="BH8" s="69"/>
+      <c r="BI8" s="69"/>
+      <c r="BJ8" s="69"/>
+      <c r="BK8" s="69"/>
+      <c r="BL8" s="69"/>
+      <c r="BM8" s="69"/>
+      <c r="BN8" s="70"/>
+      <c r="BO8" s="70"/>
+      <c r="BP8" s="70"/>
+      <c r="BQ8" s="70"/>
+      <c r="BR8" s="70"/>
+      <c r="BS8" s="70"/>
+      <c r="BT8" s="70"/>
+      <c r="BU8" s="70"/>
     </row>
     <row r="9" spans="1:90" ht="15.75" customHeight="1">
       <c r="B9" s="3"/>
@@ -2047,13 +2047,13 @@
         <v>1</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="63" t="s">
         <v>56</v>
@@ -2083,7 +2083,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="15">
         <v>7</v>
@@ -2130,7 +2130,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="15">
         <v>8</v>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="19" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="15">
         <v>9</v>
@@ -2222,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19" s="30"/>
     </row>
@@ -2258,7 +2258,7 @@
         <v>36</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="15">
         <v>11</v>
@@ -2305,7 +2305,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="15">
         <v>15</v>
@@ -2349,10 +2349,10 @@
     </row>
     <row r="23" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A23" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="15">
         <v>17</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="24" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A24" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="15">
         <v>19</v>
@@ -2416,7 +2416,7 @@
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="72" t="s">
+      <c r="H24" s="66" t="s">
         <v>49</v>
       </c>
       <c r="I24" s="30"/>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="25" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A25" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="C25" s="15">
         <v>19</v>
@@ -2463,7 +2463,7 @@
       <c r="G25" s="16">
         <v>1</v>
       </c>
-      <c r="H25" s="72" t="s">
+      <c r="H25" s="66" t="s">
         <v>52</v>
       </c>
       <c r="I25" s="30"/>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="26" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
@@ -2498,7 +2498,7 @@
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="72"/>
+      <c r="H26" s="66"/>
       <c r="I26" s="30"/>
       <c r="J26" s="48"/>
       <c r="K26" s="48"/>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="27" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
@@ -2531,7 +2531,7 @@
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="72"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="30"/>
       <c r="J27" s="48"/>
       <c r="K27" s="48"/>
@@ -2556,9 +2556,9 @@
     </row>
     <row r="28" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="73"/>
+        <v>80</v>
+      </c>
+      <c r="H28" s="67"/>
       <c r="I28" s="30"/>
       <c r="J28" s="47"/>
       <c r="K28" s="47"/>
@@ -2745,7 +2745,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C33" s="15">
         <v>9</v>
@@ -2790,7 +2790,7 @@
         <v>44</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="15">
         <v>10</v>
@@ -2832,10 +2832,10 @@
     </row>
     <row r="35" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A35" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="15">
         <v>19</v>
@@ -2939,7 +2939,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="15">
         <v>12</v>
@@ -2986,7 +2986,7 @@
         <v>46</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="15">
         <v>20</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I38" s="30"/>
       <c r="J38" s="47"/>
@@ -3031,7 +3031,7 @@
     <row r="39" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A39" s="42"/>
       <c r="B39" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="53" spans="3:3">
       <c r="C53" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="3:3">
@@ -3398,12 +3398,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="BJ6:BM6"/>
-    <mergeCell ref="BF8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="BN8:BQ8"/>
-    <mergeCell ref="BR8:BU8"/>
-    <mergeCell ref="BJ7:BM7"/>
     <mergeCell ref="AP8:AW8"/>
     <mergeCell ref="AX8:BA8"/>
     <mergeCell ref="BB8:BE8"/>
@@ -3412,6 +3406,12 @@
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="Z8:AG8"/>
     <mergeCell ref="AH8:AO8"/>
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="BF8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="BN8:BQ8"/>
+    <mergeCell ref="BR8:BU8"/>
+    <mergeCell ref="BJ7:BM7"/>
   </mergeCells>
   <conditionalFormatting sqref="J44:CK47 J32:CK42 J11:CK28">
     <cfRule type="expression" dxfId="9" priority="3">

--- a/Dokumentation + Diagramme etc/Zeitplan.xlsx
+++ b/Dokumentation + Diagramme etc/Zeitplan.xlsx
@@ -283,9 +283,6 @@
     <t>Tenbrock</t>
   </si>
   <si>
-    <t>Qualitätsmanagement</t>
-  </si>
-  <si>
     <t>HTML Template</t>
   </si>
   <si>
@@ -341,6 +338,9 @@
   </si>
   <si>
     <t>ERD</t>
+  </si>
+  <si>
+    <t>Qualitätsmanagement / QM Plan</t>
   </si>
 </sst>
 </file>
@@ -950,23 +950,23 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="6" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1376,8 +1376,8 @@
   </sheetPr>
   <dimension ref="A2:CL54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999"/>
@@ -1407,23 +1407,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:90" ht="54">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:90" ht="21" customHeight="1">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="20"/>
       <c r="J3" s="8" t="s">
         <v>11</v>
@@ -1478,12 +1478,12 @@
       </c>
     </row>
     <row r="4" spans="1:90" ht="18.75" customHeight="1">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="20"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
@@ -1520,12 +1520,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="BJ6" s="68" t="s">
+      <c r="BJ6" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="BK6" s="68"/>
-      <c r="BL6" s="68"/>
-      <c r="BM6" s="68"/>
+      <c r="BK6" s="72"/>
+      <c r="BL6" s="72"/>
+      <c r="BM6" s="72"/>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
@@ -1578,12 +1578,12 @@
       <c r="AE7" s="49"/>
       <c r="AF7" s="49"/>
       <c r="AG7" s="22"/>
-      <c r="BJ7" s="68" t="s">
+      <c r="BJ7" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="BK7" s="68"/>
-      <c r="BL7" s="68"/>
-      <c r="BM7" s="68"/>
+      <c r="BK7" s="72"/>
+      <c r="BL7" s="72"/>
+      <c r="BM7" s="72"/>
       <c r="BN7" s="40"/>
       <c r="BO7" s="40"/>
       <c r="BP7" s="40"/>
@@ -1601,80 +1601,80 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="71">
+      <c r="J8" s="68">
         <v>43416</v>
       </c>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
-      <c r="R8" s="71">
+      <c r="R8" s="68">
         <v>43417</v>
       </c>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="49"/>
       <c r="W8" s="49"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="49"/>
-      <c r="Z8" s="71">
+      <c r="Z8" s="68">
         <v>43418</v>
       </c>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="71">
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="68">
         <v>43419</v>
       </c>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="71">
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="68">
         <v>43420</v>
       </c>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="69"/>
-      <c r="AY8" s="69"/>
-      <c r="AZ8" s="69"/>
-      <c r="BA8" s="69"/>
-      <c r="BB8" s="69"/>
-      <c r="BC8" s="69"/>
-      <c r="BD8" s="69"/>
-      <c r="BE8" s="69"/>
-      <c r="BF8" s="69"/>
-      <c r="BG8" s="69"/>
-      <c r="BH8" s="69"/>
-      <c r="BI8" s="69"/>
-      <c r="BJ8" s="69"/>
-      <c r="BK8" s="69"/>
-      <c r="BL8" s="69"/>
-      <c r="BM8" s="69"/>
-      <c r="BN8" s="70"/>
-      <c r="BO8" s="70"/>
-      <c r="BP8" s="70"/>
-      <c r="BQ8" s="70"/>
-      <c r="BR8" s="70"/>
-      <c r="BS8" s="70"/>
-      <c r="BT8" s="70"/>
-      <c r="BU8" s="70"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="69"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="70"/>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="70"/>
+      <c r="BB8" s="70"/>
+      <c r="BC8" s="70"/>
+      <c r="BD8" s="70"/>
+      <c r="BE8" s="70"/>
+      <c r="BF8" s="70"/>
+      <c r="BG8" s="70"/>
+      <c r="BH8" s="70"/>
+      <c r="BI8" s="70"/>
+      <c r="BJ8" s="70"/>
+      <c r="BK8" s="70"/>
+      <c r="BL8" s="70"/>
+      <c r="BM8" s="70"/>
+      <c r="BN8" s="73"/>
+      <c r="BO8" s="73"/>
+      <c r="BP8" s="73"/>
+      <c r="BQ8" s="73"/>
+      <c r="BR8" s="73"/>
+      <c r="BS8" s="73"/>
+      <c r="BT8" s="73"/>
+      <c r="BU8" s="73"/>
     </row>
     <row r="9" spans="1:90" ht="15.75" customHeight="1">
       <c r="B9" s="3"/>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="15" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="63" t="s">
         <v>56</v>
@@ -2083,7 +2083,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="15">
         <v>7</v>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="19" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C19" s="15">
         <v>9</v>
@@ -2258,7 +2258,7 @@
         <v>36</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="15">
         <v>11</v>
@@ -2349,10 +2349,10 @@
     </row>
     <row r="23" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A23" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="15">
         <v>17</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="24" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A24" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="15">
         <v>19</v>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="25" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A25" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="C25" s="15">
         <v>19</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="26" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="27" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="28" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" s="67"/>
       <c r="I28" s="30"/>
@@ -2745,7 +2745,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="15">
         <v>9</v>
@@ -2939,7 +2939,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="15">
         <v>12</v>
@@ -2986,7 +2986,7 @@
         <v>46</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="15">
         <v>20</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I38" s="30"/>
       <c r="J38" s="47"/>
@@ -3031,7 +3031,7 @@
     <row r="39" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A39" s="42"/>
       <c r="B39" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="53" spans="3:3">
       <c r="C53" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="3:3">
@@ -3398,6 +3398,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="BF8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="BN8:BQ8"/>
+    <mergeCell ref="BR8:BU8"/>
+    <mergeCell ref="BJ7:BM7"/>
     <mergeCell ref="AP8:AW8"/>
     <mergeCell ref="AX8:BA8"/>
     <mergeCell ref="BB8:BE8"/>
@@ -3406,12 +3412,6 @@
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="Z8:AG8"/>
     <mergeCell ref="AH8:AO8"/>
-    <mergeCell ref="BJ6:BM6"/>
-    <mergeCell ref="BF8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="BN8:BQ8"/>
-    <mergeCell ref="BR8:BU8"/>
-    <mergeCell ref="BJ7:BM7"/>
   </mergeCells>
   <conditionalFormatting sqref="J44:CK47 J32:CK42 J11:CK28">
     <cfRule type="expression" dxfId="9" priority="3">

--- a/Dokumentation + Diagramme etc/Zeitplan.xlsx
+++ b/Dokumentation + Diagramme etc/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1584" yWindow="-216" windowWidth="21480" windowHeight="9804"/>
+    <workbookView xWindow="-48" yWindow="48" windowWidth="12228" windowHeight="9648"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
   <si>
     <t>Geplant</t>
   </si>
@@ -160,27 +160,6 @@
     <t>Doku</t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -211,9 +190,6 @@
     <t>3.3</t>
   </si>
   <si>
-    <t>3.4</t>
-  </si>
-  <si>
     <t>2.1.1</t>
   </si>
   <si>
@@ -226,9 +202,6 @@
     <t>2.2.2</t>
   </si>
   <si>
-    <t>2.3.2</t>
-  </si>
-  <si>
     <t>2.3.1</t>
   </si>
   <si>
@@ -292,39 +265,15 @@
     <t>Sequenzdiagramm</t>
   </si>
   <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
     <t>Qualitätssicherung der Datenbank</t>
   </si>
   <si>
     <t>Testdaten für die Datenbank</t>
   </si>
   <si>
-    <t>2.6</t>
-  </si>
-  <si>
     <t>Projektstruckturplan</t>
   </si>
   <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
     <t>Seite erstellen</t>
   </si>
   <si>
@@ -341,6 +290,66 @@
   </si>
   <si>
     <t>Qualitätsmanagement / QM Plan</t>
+  </si>
+  <si>
+    <t>Präsentation erstellen</t>
+  </si>
+  <si>
+    <t>Puffer für evtl. nacharbeiten</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
+  </si>
+  <si>
+    <t>1.3.0</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>1.5.0</t>
+  </si>
+  <si>
+    <t>1.6.0</t>
+  </si>
+  <si>
+    <t>1.7.0</t>
+  </si>
+  <si>
+    <t>1.8.0</t>
+  </si>
+  <si>
+    <t>1.9.0</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
   </si>
 </sst>
 </file>
@@ -947,26 +956,26 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="6" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1374,10 +1383,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:CL54"/>
+  <dimension ref="A2:CL50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999"/>
@@ -1407,23 +1416,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:90" ht="54">
-      <c r="B2" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="B2" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:90" ht="21" customHeight="1">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="20"/>
       <c r="J3" s="8" t="s">
         <v>11</v>
@@ -1478,12 +1487,12 @@
       </c>
     </row>
     <row r="4" spans="1:90" ht="18.75" customHeight="1">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="20"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
@@ -1520,12 +1529,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="BJ6" s="72" t="s">
+      <c r="BJ6" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="BK6" s="72"/>
-      <c r="BL6" s="72"/>
-      <c r="BM6" s="72"/>
+      <c r="BK6" s="67"/>
+      <c r="BL6" s="67"/>
+      <c r="BM6" s="67"/>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
@@ -1578,12 +1587,12 @@
       <c r="AE7" s="49"/>
       <c r="AF7" s="49"/>
       <c r="AG7" s="22"/>
-      <c r="BJ7" s="72" t="s">
+      <c r="BJ7" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="BK7" s="72"/>
-      <c r="BL7" s="72"/>
-      <c r="BM7" s="72"/>
+      <c r="BK7" s="67"/>
+      <c r="BL7" s="67"/>
+      <c r="BM7" s="67"/>
       <c r="BN7" s="40"/>
       <c r="BO7" s="40"/>
       <c r="BP7" s="40"/>
@@ -1601,80 +1610,80 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="68">
+      <c r="J8" s="70">
         <v>43416</v>
       </c>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
-      <c r="R8" s="68">
+      <c r="R8" s="70">
         <v>43417</v>
       </c>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="49"/>
       <c r="W8" s="49"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="49"/>
-      <c r="Z8" s="68">
+      <c r="Z8" s="70">
         <v>43418</v>
       </c>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="68">
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="70">
         <v>43419</v>
       </c>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="69"/>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="69"/>
-      <c r="AM8" s="69"/>
-      <c r="AN8" s="69"/>
-      <c r="AO8" s="69"/>
-      <c r="AP8" s="68">
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="70">
         <v>43420</v>
       </c>
-      <c r="AQ8" s="69"/>
-      <c r="AR8" s="69"/>
-      <c r="AS8" s="69"/>
-      <c r="AT8" s="69"/>
-      <c r="AU8" s="69"/>
-      <c r="AV8" s="69"/>
-      <c r="AW8" s="69"/>
-      <c r="AX8" s="70"/>
-      <c r="AY8" s="70"/>
-      <c r="AZ8" s="70"/>
-      <c r="BA8" s="70"/>
-      <c r="BB8" s="70"/>
-      <c r="BC8" s="70"/>
-      <c r="BD8" s="70"/>
-      <c r="BE8" s="70"/>
-      <c r="BF8" s="70"/>
-      <c r="BG8" s="70"/>
-      <c r="BH8" s="70"/>
-      <c r="BI8" s="70"/>
-      <c r="BJ8" s="70"/>
-      <c r="BK8" s="70"/>
-      <c r="BL8" s="70"/>
-      <c r="BM8" s="70"/>
-      <c r="BN8" s="73"/>
-      <c r="BO8" s="73"/>
-      <c r="BP8" s="73"/>
-      <c r="BQ8" s="73"/>
-      <c r="BR8" s="73"/>
-      <c r="BS8" s="73"/>
-      <c r="BT8" s="73"/>
-      <c r="BU8" s="73"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
+      <c r="AS8" s="71"/>
+      <c r="AT8" s="71"/>
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="71"/>
+      <c r="AW8" s="71"/>
+      <c r="AX8" s="68"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="68"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="68"/>
+      <c r="BC8" s="68"/>
+      <c r="BD8" s="68"/>
+      <c r="BE8" s="68"/>
+      <c r="BF8" s="68"/>
+      <c r="BG8" s="68"/>
+      <c r="BH8" s="68"/>
+      <c r="BI8" s="68"/>
+      <c r="BJ8" s="68"/>
+      <c r="BK8" s="68"/>
+      <c r="BL8" s="68"/>
+      <c r="BM8" s="68"/>
+      <c r="BN8" s="69"/>
+      <c r="BO8" s="69"/>
+      <c r="BP8" s="69"/>
+      <c r="BQ8" s="69"/>
+      <c r="BR8" s="69"/>
+      <c r="BS8" s="69"/>
+      <c r="BT8" s="69"/>
+      <c r="BU8" s="69"/>
     </row>
     <row r="9" spans="1:90" ht="15.75" customHeight="1">
       <c r="B9" s="3"/>
@@ -1945,7 +1954,7 @@
     </row>
     <row r="11" spans="1:90" ht="18.75" customHeight="1">
       <c r="A11" s="42" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>13</v>
@@ -1972,7 +1981,7 @@
     </row>
     <row r="12" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A12" s="42" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>14</v>
@@ -1993,16 +2002,16 @@
         <v>1</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A13" s="42" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C13" s="15">
         <v>4</v>
@@ -2020,16 +2029,16 @@
         <v>1</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A14" s="42" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C14" s="17">
         <v>4</v>
@@ -2047,16 +2056,16 @@
         <v>1</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C15" s="15">
         <v>5</v>
@@ -2074,16 +2083,16 @@
         <v>0.5</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A16" s="42" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C16" s="15">
         <v>7</v>
@@ -2101,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="48"/>
@@ -2127,10 +2136,10 @@
     </row>
     <row r="17" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A17" s="42" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C17" s="15">
         <v>8</v>
@@ -2148,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="48"/>
@@ -2174,10 +2183,10 @@
     </row>
     <row r="18" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C18" s="15">
         <v>9</v>
@@ -2195,16 +2204,16 @@
         <v>0.5</v>
       </c>
       <c r="H18" s="64" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C19" s="15">
         <v>9</v>
@@ -2216,22 +2225,22 @@
         <v>9</v>
       </c>
       <c r="F19" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" s="16">
         <v>1</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C20" s="15">
         <v>10</v>
@@ -2255,10 +2264,10 @@
     </row>
     <row r="21" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C21" s="15">
         <v>11</v>
@@ -2276,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I21" s="30"/>
       <c r="J21" s="48"/>
@@ -2302,10 +2311,10 @@
     </row>
     <row r="22" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A22" s="42" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C22" s="15">
         <v>15</v>
@@ -2323,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I22" s="30"/>
       <c r="J22" s="48"/>
@@ -2349,10 +2358,10 @@
     </row>
     <row r="23" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A23" s="42" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C23" s="15">
         <v>17</v>
@@ -2370,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="48"/>
@@ -2396,10 +2405,10 @@
     </row>
     <row r="24" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A24" s="42" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C24" s="15">
         <v>19</v>
@@ -2417,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="48"/>
@@ -2443,10 +2452,10 @@
     </row>
     <row r="25" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A25" s="42" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C25" s="15">
         <v>19</v>
@@ -2464,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="66" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="48"/>
@@ -2490,7 +2499,7 @@
     </row>
     <row r="26" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
@@ -2521,183 +2530,317 @@
       <c r="AV26" s="48"/>
       <c r="AW26" s="48"/>
     </row>
-    <row r="27" spans="1:90" ht="18.899999999999999" customHeight="1">
-      <c r="A27" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="48"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AO27" s="48"/>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="48"/>
-      <c r="AV27" s="48"/>
-      <c r="AW27" s="48"/>
-    </row>
-    <row r="28" spans="1:90" ht="18.899999999999999" customHeight="1">
-      <c r="A28" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="67"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="Z28" s="47"/>
-      <c r="AC28" s="47"/>
-      <c r="AD28" s="47"/>
-      <c r="AG28" s="47"/>
-      <c r="AH28" s="47"/>
-      <c r="AI28" s="47"/>
-      <c r="AJ28" s="47"/>
-      <c r="AO28" s="47"/>
-      <c r="AP28" s="47"/>
-      <c r="AQ28" s="47"/>
-      <c r="AV28" s="47"/>
-      <c r="AW28" s="47"/>
-    </row>
-    <row r="31" spans="1:90" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A31" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="27" t="s">
+    <row r="27" spans="1:90" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
-      <c r="AK31" s="28"/>
-      <c r="AL31" s="28"/>
-      <c r="AM31" s="28"/>
-      <c r="AN31" s="28"/>
-      <c r="AO31" s="28"/>
-      <c r="AP31" s="28"/>
-      <c r="AQ31" s="28"/>
-      <c r="AR31" s="28"/>
-      <c r="AS31" s="28"/>
-      <c r="AT31" s="28"/>
-      <c r="AU31" s="28"/>
-      <c r="AV31" s="28"/>
-      <c r="AW31" s="28"/>
-      <c r="AX31" s="28"/>
-      <c r="AY31" s="28"/>
-      <c r="AZ31" s="28"/>
-      <c r="BA31" s="28"/>
-      <c r="BB31" s="28"/>
-      <c r="BC31" s="28"/>
-      <c r="BD31" s="28"/>
-      <c r="BE31" s="28"/>
-      <c r="BF31" s="28"/>
-      <c r="BG31" s="28"/>
-      <c r="BH31" s="28"/>
-      <c r="BI31" s="28"/>
-      <c r="BJ31" s="28"/>
-      <c r="BK31" s="28"/>
-      <c r="BL31" s="28"/>
-      <c r="BM31" s="28"/>
-      <c r="BN31" s="28"/>
-      <c r="BO31" s="28"/>
-      <c r="BP31" s="28"/>
-      <c r="BQ31" s="28"/>
-      <c r="BR31" s="28"/>
-      <c r="BS31" s="28"/>
-      <c r="BT31" s="28"/>
-      <c r="BU31" s="28"/>
-      <c r="BV31" s="28"/>
-      <c r="BW31" s="28"/>
-      <c r="BX31" s="28"/>
-      <c r="BY31" s="28"/>
-      <c r="BZ31" s="28"/>
-      <c r="CA31" s="28"/>
-      <c r="CB31" s="28"/>
-      <c r="CC31" s="28"/>
-      <c r="CD31" s="28"/>
-      <c r="CE31" s="28"/>
-      <c r="CF31" s="28"/>
-      <c r="CG31" s="28"/>
-      <c r="CH31" s="28"/>
-      <c r="CI31" s="28"/>
-      <c r="CJ31" s="28"/>
-      <c r="CK31" s="28"/>
-      <c r="CL31" s="25"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="28"/>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="28"/>
+      <c r="AO27" s="28"/>
+      <c r="AP27" s="28"/>
+      <c r="AQ27" s="28"/>
+      <c r="AR27" s="28"/>
+      <c r="AS27" s="28"/>
+      <c r="AT27" s="28"/>
+      <c r="AU27" s="28"/>
+      <c r="AV27" s="28"/>
+      <c r="AW27" s="28"/>
+      <c r="AX27" s="28"/>
+      <c r="AY27" s="28"/>
+      <c r="AZ27" s="28"/>
+      <c r="BA27" s="28"/>
+      <c r="BB27" s="28"/>
+      <c r="BC27" s="28"/>
+      <c r="BD27" s="28"/>
+      <c r="BE27" s="28"/>
+      <c r="BF27" s="28"/>
+      <c r="BG27" s="28"/>
+      <c r="BH27" s="28"/>
+      <c r="BI27" s="28"/>
+      <c r="BJ27" s="28"/>
+      <c r="BK27" s="28"/>
+      <c r="BL27" s="28"/>
+      <c r="BM27" s="28"/>
+      <c r="BN27" s="28"/>
+      <c r="BO27" s="28"/>
+      <c r="BP27" s="28"/>
+      <c r="BQ27" s="28"/>
+      <c r="BR27" s="28"/>
+      <c r="BS27" s="28"/>
+      <c r="BT27" s="28"/>
+      <c r="BU27" s="28"/>
+      <c r="BV27" s="28"/>
+      <c r="BW27" s="28"/>
+      <c r="BX27" s="28"/>
+      <c r="BY27" s="28"/>
+      <c r="BZ27" s="28"/>
+      <c r="CA27" s="28"/>
+      <c r="CB27" s="28"/>
+      <c r="CC27" s="28"/>
+      <c r="CD27" s="28"/>
+      <c r="CE27" s="28"/>
+      <c r="CF27" s="28"/>
+      <c r="CG27" s="28"/>
+      <c r="CH27" s="28"/>
+      <c r="CI27" s="28"/>
+      <c r="CJ27" s="28"/>
+      <c r="CK27" s="28"/>
+      <c r="CL27" s="25"/>
+    </row>
+    <row r="28" spans="1:90" s="57" customFormat="1" ht="18.899999999999999" customHeight="1">
+      <c r="A28" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="52">
+        <v>21</v>
+      </c>
+      <c r="D28" s="52">
+        <v>3</v>
+      </c>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53">
+        <v>0</v>
+      </c>
+      <c r="H28" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="55"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="56"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="56"/>
+      <c r="AQ28" s="56"/>
+      <c r="AR28" s="56"/>
+      <c r="AS28" s="56"/>
+      <c r="AT28" s="56"/>
+      <c r="AU28" s="56"/>
+      <c r="AV28" s="56"/>
+      <c r="AW28" s="56"/>
+    </row>
+    <row r="29" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A29" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="15">
+        <v>9</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15">
+        <v>9</v>
+      </c>
+      <c r="F29" s="15">
+        <v>1</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="46"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="46"/>
+      <c r="AI29" s="46"/>
+      <c r="AJ29" s="46"/>
+      <c r="AO29" s="46"/>
+      <c r="AP29" s="46"/>
+      <c r="AQ29" s="46"/>
+      <c r="AV29" s="46"/>
+      <c r="AW29" s="46"/>
+    </row>
+    <row r="30" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A30" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="15">
+        <v>10</v>
+      </c>
+      <c r="D30" s="15">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15">
+        <v>10</v>
+      </c>
+      <c r="F30" s="15">
+        <v>1</v>
+      </c>
+      <c r="G30" s="16">
+        <v>1</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="46"/>
+      <c r="AG30" s="46"/>
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="46"/>
+      <c r="AJ30" s="46"/>
+      <c r="AO30" s="46"/>
+      <c r="AP30" s="46"/>
+      <c r="AQ30" s="46"/>
+      <c r="AV30" s="46"/>
+      <c r="AW30" s="46"/>
+    </row>
+    <row r="31" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A31" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="15">
+        <v>19</v>
+      </c>
+      <c r="D31" s="15">
+        <v>2</v>
+      </c>
+      <c r="E31" s="15">
+        <v>19</v>
+      </c>
+      <c r="F31" s="15">
+        <v>2</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="48"/>
+      <c r="AG31" s="48"/>
+      <c r="AH31" s="48"/>
+      <c r="AI31" s="48"/>
+      <c r="AJ31" s="48"/>
+      <c r="AO31" s="48"/>
+      <c r="AP31" s="48"/>
+      <c r="AQ31" s="48"/>
+      <c r="AV31" s="48"/>
+      <c r="AW31" s="48"/>
     </row>
     <row r="32" spans="1:90" s="57" customFormat="1" ht="18.899999999999999" customHeight="1">
       <c r="A32" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B32" s="52"/>
       <c r="C32" s="52">
         <v>21</v>
       </c>
       <c r="D32" s="52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32" s="52"/>
       <c r="F32" s="52"/>
       <c r="G32" s="53">
         <v>0</v>
       </c>
-      <c r="H32" s="65" t="s">
-        <v>49</v>
-      </c>
+      <c r="H32" s="54"/>
       <c r="I32" s="55"/>
       <c r="J32" s="56"/>
       <c r="K32" s="56"/>
@@ -2742,27 +2885,29 @@
     </row>
     <row r="33" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A33" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>84</v>
+        <v>37</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>57</v>
       </c>
       <c r="C33" s="15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" s="15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F33" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="29"/>
+      <c r="H33" s="64" t="s">
+        <v>17</v>
+      </c>
       <c r="I33" s="30"/>
       <c r="J33" s="46"/>
       <c r="K33" s="46"/>
@@ -2787,64 +2932,66 @@
     </row>
     <row r="34" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A34" s="42" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C34" s="15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D34" s="15">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E34" s="15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F34" s="15">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G34" s="16">
-        <v>1</v>
-      </c>
-      <c r="H34" s="29"/>
+        <v>0.3</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="I34" s="30"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="Z34" s="46"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="46"/>
-      <c r="AG34" s="46"/>
-      <c r="AH34" s="46"/>
-      <c r="AI34" s="46"/>
-      <c r="AJ34" s="46"/>
-      <c r="AO34" s="46"/>
-      <c r="AP34" s="46"/>
-      <c r="AQ34" s="46"/>
-      <c r="AV34" s="46"/>
-      <c r="AW34" s="46"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="Z34" s="47"/>
+      <c r="AC34" s="47"/>
+      <c r="AD34" s="47"/>
+      <c r="AG34" s="47"/>
+      <c r="AH34" s="47"/>
+      <c r="AI34" s="47"/>
+      <c r="AJ34" s="47"/>
+      <c r="AO34" s="47"/>
+      <c r="AP34" s="47"/>
+      <c r="AQ34" s="47"/>
+      <c r="AV34" s="47"/>
+      <c r="AW34" s="47"/>
     </row>
     <row r="35" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A35" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="C35" s="15">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D35" s="15">
         <v>2</v>
       </c>
       <c r="E35" s="15">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F35" s="15">
         <v>2</v>
@@ -2875,90 +3022,84 @@
       <c r="AV35" s="48"/>
       <c r="AW35" s="48"/>
     </row>
-    <row r="36" spans="1:90" s="57" customFormat="1" ht="18.899999999999999" customHeight="1">
-      <c r="A36" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52">
-        <v>21</v>
-      </c>
-      <c r="D36" s="52">
-        <v>4</v>
-      </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53">
+    <row r="36" spans="1:90" s="26" customFormat="1" ht="18.899999999999999" customHeight="1">
+      <c r="A36" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="58"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="60">
         <v>0</v>
       </c>
-      <c r="H36" s="54"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="56"/>
-      <c r="AC36" s="56"/>
-      <c r="AD36" s="56"/>
-      <c r="AE36" s="56"/>
-      <c r="AF36" s="56"/>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="56"/>
-      <c r="AJ36" s="56"/>
-      <c r="AK36" s="56"/>
-      <c r="AL36" s="56"/>
-      <c r="AM36" s="56"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="56"/>
-      <c r="AQ36" s="56"/>
-      <c r="AR36" s="56"/>
-      <c r="AS36" s="56"/>
-      <c r="AT36" s="56"/>
-      <c r="AU36" s="56"/>
-      <c r="AV36" s="56"/>
-      <c r="AW36" s="56"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="25"/>
+      <c r="AJ36" s="25"/>
+      <c r="AK36" s="25"/>
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="25"/>
+      <c r="AN36" s="25"/>
+      <c r="AO36" s="25"/>
+      <c r="AP36" s="25"/>
+      <c r="AQ36" s="25"/>
+      <c r="AR36" s="25"/>
+      <c r="AS36" s="25"/>
+      <c r="AT36" s="25"/>
+      <c r="AU36" s="25"/>
+      <c r="AV36" s="25"/>
+      <c r="AW36" s="25"/>
     </row>
     <row r="37" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A37" s="42" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C37" s="15">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D37" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" s="15">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F37" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" s="16">
-        <v>1</v>
-      </c>
-      <c r="H37" s="64" t="s">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" s="29"/>
       <c r="I37" s="30"/>
       <c r="J37" s="46"/>
       <c r="K37" s="46"/>
@@ -2982,30 +3123,16 @@
       <c r="AW37" s="46"/>
     </row>
     <row r="38" spans="1:90" ht="18.899999999999999" customHeight="1">
-      <c r="A38" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="15">
-        <v>20</v>
-      </c>
-      <c r="D38" s="15">
-        <v>13</v>
-      </c>
-      <c r="E38" s="15">
-        <v>20</v>
-      </c>
-      <c r="F38" s="15">
-        <v>13</v>
-      </c>
+      <c r="A38" s="42"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="16">
         <v>0</v>
       </c>
-      <c r="H38" s="29" t="s">
-        <v>82</v>
-      </c>
+      <c r="H38" s="29"/>
       <c r="I38" s="30"/>
       <c r="J38" s="47"/>
       <c r="K38" s="47"/>
@@ -3028,382 +3155,206 @@
       <c r="AV38" s="47"/>
       <c r="AW38" s="47"/>
     </row>
-    <row r="39" spans="1:90" ht="18.899999999999999" customHeight="1">
-      <c r="A39" s="42"/>
-      <c r="B39" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="Z39" s="48"/>
-      <c r="AC39" s="48"/>
-      <c r="AD39" s="48"/>
-      <c r="AG39" s="48"/>
-      <c r="AH39" s="48"/>
-      <c r="AI39" s="48"/>
-      <c r="AJ39" s="48"/>
-      <c r="AO39" s="48"/>
-      <c r="AP39" s="48"/>
-      <c r="AQ39" s="48"/>
-      <c r="AV39" s="48"/>
-      <c r="AW39" s="48"/>
-    </row>
-    <row r="40" spans="1:90" s="26" customFormat="1" ht="18.899999999999999" customHeight="1">
-      <c r="A40" s="43" t="s">
+    <row r="39" spans="1:90" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A39" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="28"/>
+      <c r="AJ39" s="28"/>
+      <c r="AK39" s="28"/>
+      <c r="AL39" s="28"/>
+      <c r="AM39" s="28"/>
+      <c r="AN39" s="28"/>
+      <c r="AO39" s="28"/>
+      <c r="AP39" s="28"/>
+      <c r="AQ39" s="28"/>
+      <c r="AR39" s="28"/>
+      <c r="AS39" s="28"/>
+      <c r="AT39" s="28"/>
+      <c r="AU39" s="28"/>
+      <c r="AV39" s="28"/>
+      <c r="AW39" s="28"/>
+      <c r="AX39" s="28"/>
+      <c r="AY39" s="28"/>
+      <c r="AZ39" s="28"/>
+      <c r="BA39" s="28"/>
+      <c r="BB39" s="28"/>
+      <c r="BC39" s="28"/>
+      <c r="BD39" s="28"/>
+      <c r="BE39" s="28"/>
+      <c r="BF39" s="28"/>
+      <c r="BG39" s="28"/>
+      <c r="BH39" s="28"/>
+      <c r="BI39" s="28"/>
+      <c r="BJ39" s="28"/>
+      <c r="BK39" s="28"/>
+      <c r="BL39" s="28"/>
+      <c r="BM39" s="28"/>
+      <c r="BN39" s="28"/>
+      <c r="BO39" s="28"/>
+      <c r="BP39" s="28"/>
+      <c r="BQ39" s="28"/>
+      <c r="BR39" s="28"/>
+      <c r="BS39" s="28"/>
+      <c r="BT39" s="28"/>
+      <c r="BU39" s="28"/>
+      <c r="BV39" s="28"/>
+      <c r="BW39" s="28"/>
+      <c r="BX39" s="28"/>
+      <c r="BY39" s="28"/>
+      <c r="BZ39" s="28"/>
+      <c r="CA39" s="28"/>
+      <c r="CB39" s="28"/>
+      <c r="CC39" s="28"/>
+      <c r="CD39" s="28"/>
+      <c r="CE39" s="28"/>
+      <c r="CF39" s="28"/>
+      <c r="CG39" s="28"/>
+      <c r="CH39" s="28"/>
+      <c r="CI39" s="28"/>
+      <c r="CJ39" s="28"/>
+      <c r="CK39" s="28"/>
+      <c r="CL39" s="25"/>
+    </row>
+    <row r="40" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A40" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="15">
         <v>37</v>
       </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="59">
-        <v>21</v>
-      </c>
-      <c r="D40" s="59">
-        <v>8</v>
-      </c>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="60">
+      <c r="D40" s="15">
+        <v>1</v>
+      </c>
+      <c r="E40" s="15">
+        <v>37</v>
+      </c>
+      <c r="F40" s="15">
+        <v>1</v>
+      </c>
+      <c r="G40" s="16">
         <v>0</v>
       </c>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="25"/>
-      <c r="AD40" s="25"/>
-      <c r="AE40" s="25"/>
-      <c r="AF40" s="25"/>
-      <c r="AG40" s="25"/>
-      <c r="AH40" s="25"/>
-      <c r="AI40" s="25"/>
-      <c r="AJ40" s="25"/>
-      <c r="AK40" s="25"/>
-      <c r="AL40" s="25"/>
-      <c r="AM40" s="25"/>
-      <c r="AN40" s="25"/>
-      <c r="AO40" s="25"/>
-      <c r="AP40" s="25"/>
-      <c r="AQ40" s="25"/>
-      <c r="AR40" s="25"/>
-      <c r="AS40" s="25"/>
-      <c r="AT40" s="25"/>
-      <c r="AU40" s="25"/>
-      <c r="AV40" s="25"/>
-      <c r="AW40" s="25"/>
+      <c r="H40" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A41" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="C41" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D41" s="15">
-        <v>5</v>
-      </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="E41" s="15">
+        <v>22</v>
+      </c>
+      <c r="F41" s="15">
+        <v>13</v>
+      </c>
       <c r="G41" s="16">
         <v>0</v>
       </c>
-      <c r="H41" s="29"/>
+      <c r="H41" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="I41" s="30"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46"/>
-      <c r="Z41" s="46"/>
-      <c r="AC41" s="46"/>
-      <c r="AD41" s="46"/>
-      <c r="AG41" s="46"/>
-      <c r="AH41" s="46"/>
-      <c r="AI41" s="46"/>
-      <c r="AJ41" s="46"/>
-      <c r="AO41" s="46"/>
-      <c r="AP41" s="46"/>
-      <c r="AQ41" s="46"/>
-      <c r="AV41" s="46"/>
-      <c r="AW41" s="46"/>
     </row>
     <row r="42" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A42" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15">
-        <v>25</v>
-      </c>
-      <c r="D42" s="15">
-        <v>5</v>
-      </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="73" t="s">
+        <v>71</v>
+      </c>
       <c r="G42" s="16">
         <v>0</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="30"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
-      <c r="Z42" s="47"/>
-      <c r="AC42" s="47"/>
-      <c r="AD42" s="47"/>
-      <c r="AG42" s="47"/>
-      <c r="AH42" s="47"/>
-      <c r="AI42" s="47"/>
-      <c r="AJ42" s="47"/>
-      <c r="AO42" s="47"/>
-      <c r="AP42" s="47"/>
-      <c r="AQ42" s="47"/>
-      <c r="AV42" s="47"/>
-      <c r="AW42" s="47"/>
-    </row>
-    <row r="43" spans="1:90" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28"/>
-      <c r="AE43" s="28"/>
-      <c r="AF43" s="28"/>
-      <c r="AG43" s="28"/>
-      <c r="AH43" s="28"/>
-      <c r="AI43" s="28"/>
-      <c r="AJ43" s="28"/>
-      <c r="AK43" s="28"/>
-      <c r="AL43" s="28"/>
-      <c r="AM43" s="28"/>
-      <c r="AN43" s="28"/>
-      <c r="AO43" s="28"/>
-      <c r="AP43" s="28"/>
-      <c r="AQ43" s="28"/>
-      <c r="AR43" s="28"/>
-      <c r="AS43" s="28"/>
-      <c r="AT43" s="28"/>
-      <c r="AU43" s="28"/>
-      <c r="AV43" s="28"/>
-      <c r="AW43" s="28"/>
-      <c r="AX43" s="28"/>
-      <c r="AY43" s="28"/>
-      <c r="AZ43" s="28"/>
-      <c r="BA43" s="28"/>
-      <c r="BB43" s="28"/>
-      <c r="BC43" s="28"/>
-      <c r="BD43" s="28"/>
-      <c r="BE43" s="28"/>
-      <c r="BF43" s="28"/>
-      <c r="BG43" s="28"/>
-      <c r="BH43" s="28"/>
-      <c r="BI43" s="28"/>
-      <c r="BJ43" s="28"/>
-      <c r="BK43" s="28"/>
-      <c r="BL43" s="28"/>
-      <c r="BM43" s="28"/>
-      <c r="BN43" s="28"/>
-      <c r="BO43" s="28"/>
-      <c r="BP43" s="28"/>
-      <c r="BQ43" s="28"/>
-      <c r="BR43" s="28"/>
-      <c r="BS43" s="28"/>
-      <c r="BT43" s="28"/>
-      <c r="BU43" s="28"/>
-      <c r="BV43" s="28"/>
-      <c r="BW43" s="28"/>
-      <c r="BX43" s="28"/>
-      <c r="BY43" s="28"/>
-      <c r="BZ43" s="28"/>
-      <c r="CA43" s="28"/>
-      <c r="CB43" s="28"/>
-      <c r="CC43" s="28"/>
-      <c r="CD43" s="28"/>
-      <c r="CE43" s="28"/>
-      <c r="CF43" s="28"/>
-      <c r="CG43" s="28"/>
-      <c r="CH43" s="28"/>
-      <c r="CI43" s="28"/>
-      <c r="CJ43" s="28"/>
-      <c r="CK43" s="28"/>
-      <c r="CL43" s="25"/>
-    </row>
-    <row r="44" spans="1:90" ht="18.899999999999999" customHeight="1">
-      <c r="A44" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="15">
-        <v>21</v>
-      </c>
-      <c r="D44" s="15">
-        <v>3</v>
-      </c>
-      <c r="E44" s="15">
-        <v>21</v>
-      </c>
-      <c r="F44" s="15">
-        <v>3</v>
-      </c>
-      <c r="G44" s="16">
+    </row>
+    <row r="43" spans="1:90" ht="18.899999999999999" customHeight="1">
+      <c r="A43" s="44"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16">
         <v>0</v>
       </c>
-      <c r="H44" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="30"/>
-    </row>
-    <row r="45" spans="1:90" ht="18.899999999999999" customHeight="1">
-      <c r="A45" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="15">
-        <v>22</v>
-      </c>
-      <c r="D45" s="15">
-        <v>11</v>
-      </c>
-      <c r="E45" s="15">
-        <v>22</v>
-      </c>
-      <c r="F45" s="15">
-        <v>11</v>
-      </c>
-      <c r="G45" s="16">
-        <v>0</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="I45" s="30"/>
-    </row>
-    <row r="46" spans="1:90" ht="18.899999999999999" customHeight="1">
-      <c r="A46" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15">
-        <v>28</v>
-      </c>
-      <c r="D46" s="15">
-        <v>3</v>
-      </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="16">
-        <v>0</v>
-      </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30"/>
-    </row>
-    <row r="47" spans="1:90" ht="18.899999999999999" customHeight="1">
-      <c r="A47" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15">
-        <v>31</v>
-      </c>
-      <c r="D47" s="15">
-        <v>2</v>
-      </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16">
-        <v>0</v>
-      </c>
-      <c r="H47" s="33"/>
-      <c r="I47" s="34"/>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" s="48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" s="48" t="s">
+      <c r="H43" s="33"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="48" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="BJ6:BM6"/>
-    <mergeCell ref="BF8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="BN8:BQ8"/>
-    <mergeCell ref="BR8:BU8"/>
-    <mergeCell ref="BJ7:BM7"/>
     <mergeCell ref="AP8:AW8"/>
     <mergeCell ref="AX8:BA8"/>
     <mergeCell ref="BB8:BE8"/>
@@ -3412,8 +3363,14 @@
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="Z8:AG8"/>
     <mergeCell ref="AH8:AO8"/>
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="BF8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="BN8:BQ8"/>
+    <mergeCell ref="BR8:BU8"/>
+    <mergeCell ref="BJ7:BM7"/>
   </mergeCells>
-  <conditionalFormatting sqref="J44:CK47 J32:CK42 J11:CK28">
+  <conditionalFormatting sqref="J40:CK43 J28:CK38 J11:CK26">
     <cfRule type="expression" dxfId="9" priority="3">
       <formula>ProzentAbgeschlossen</formula>
     </cfRule>
@@ -3439,12 +3396,12 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48:CK48">
+  <conditionalFormatting sqref="B44:CK44">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:CK10 J31:CK31 J43:CK43">
+  <conditionalFormatting sqref="J9:CK10 J27:CK27 J39:CK39">
     <cfRule type="expression" dxfId="0" priority="10">
       <formula>J$9=Ausgewählter_Zeitraum</formula>
     </cfRule>

--- a/Dokumentation + Diagramme etc/Zeitplan.xlsx
+++ b/Dokumentation + Diagramme etc/Zeitplan.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
   <si>
     <t>Geplant</t>
   </si>
@@ -346,10 +346,13 @@
     <t>1.1.6</t>
   </si>
   <si>
-    <t>1.1.7</t>
-  </si>
-  <si>
     <t>2.2.3</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>Abnahme</t>
   </si>
 </sst>
 </file>
@@ -956,6 +959,9 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,9 +979,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1386,7 +1389,7 @@
   <dimension ref="A2:CL50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="AU37" sqref="AU37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999"/>
@@ -1416,23 +1419,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:90" ht="54">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:90" ht="21" customHeight="1">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="20"/>
       <c r="J3" s="8" t="s">
         <v>11</v>
@@ -1487,12 +1490,12 @@
       </c>
     </row>
     <row r="4" spans="1:90" ht="18.75" customHeight="1">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="20"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
@@ -1529,12 +1532,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="BJ6" s="67" t="s">
+      <c r="BJ6" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="BK6" s="67"/>
-      <c r="BL6" s="67"/>
-      <c r="BM6" s="67"/>
+      <c r="BK6" s="68"/>
+      <c r="BL6" s="68"/>
+      <c r="BM6" s="68"/>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
@@ -1587,12 +1590,12 @@
       <c r="AE7" s="49"/>
       <c r="AF7" s="49"/>
       <c r="AG7" s="22"/>
-      <c r="BJ7" s="67" t="s">
+      <c r="BJ7" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="67"/>
-      <c r="BM7" s="67"/>
+      <c r="BK7" s="68"/>
+      <c r="BL7" s="68"/>
+      <c r="BM7" s="68"/>
       <c r="BN7" s="40"/>
       <c r="BO7" s="40"/>
       <c r="BP7" s="40"/>
@@ -1610,80 +1613,80 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="70">
+      <c r="J8" s="71">
         <v>43416</v>
       </c>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
-      <c r="R8" s="70">
+      <c r="R8" s="71">
         <v>43417</v>
       </c>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="49"/>
       <c r="W8" s="49"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="49"/>
-      <c r="Z8" s="70">
+      <c r="Z8" s="71">
         <v>43418</v>
       </c>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="71"/>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="70">
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="71">
         <v>43419</v>
       </c>
-      <c r="AI8" s="71"/>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="70">
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="71">
         <v>43420</v>
       </c>
-      <c r="AQ8" s="71"/>
-      <c r="AR8" s="71"/>
-      <c r="AS8" s="71"/>
-      <c r="AT8" s="71"/>
-      <c r="AU8" s="71"/>
-      <c r="AV8" s="71"/>
-      <c r="AW8" s="71"/>
-      <c r="AX8" s="68"/>
-      <c r="AY8" s="68"/>
-      <c r="AZ8" s="68"/>
-      <c r="BA8" s="68"/>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="68"/>
-      <c r="BD8" s="68"/>
-      <c r="BE8" s="68"/>
-      <c r="BF8" s="68"/>
-      <c r="BG8" s="68"/>
-      <c r="BH8" s="68"/>
-      <c r="BI8" s="68"/>
-      <c r="BJ8" s="68"/>
-      <c r="BK8" s="68"/>
-      <c r="BL8" s="68"/>
-      <c r="BM8" s="68"/>
-      <c r="BN8" s="69"/>
-      <c r="BO8" s="69"/>
-      <c r="BP8" s="69"/>
-      <c r="BQ8" s="69"/>
-      <c r="BR8" s="69"/>
-      <c r="BS8" s="69"/>
-      <c r="BT8" s="69"/>
-      <c r="BU8" s="69"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="72"/>
+      <c r="AU8" s="72"/>
+      <c r="AV8" s="72"/>
+      <c r="AW8" s="72"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="69"/>
+      <c r="BC8" s="69"/>
+      <c r="BD8" s="69"/>
+      <c r="BE8" s="69"/>
+      <c r="BF8" s="69"/>
+      <c r="BG8" s="69"/>
+      <c r="BH8" s="69"/>
+      <c r="BI8" s="69"/>
+      <c r="BJ8" s="69"/>
+      <c r="BK8" s="69"/>
+      <c r="BL8" s="69"/>
+      <c r="BM8" s="69"/>
+      <c r="BN8" s="70"/>
+      <c r="BO8" s="70"/>
+      <c r="BP8" s="70"/>
+      <c r="BQ8" s="70"/>
+      <c r="BR8" s="70"/>
+      <c r="BS8" s="70"/>
+      <c r="BT8" s="70"/>
+      <c r="BU8" s="70"/>
     </row>
     <row r="9" spans="1:90" ht="15.75" customHeight="1">
       <c r="B9" s="3"/>
@@ -2498,9 +2501,7 @@
       <c r="AW25" s="48"/>
     </row>
     <row r="26" spans="1:90" ht="18.899999999999999" customHeight="1">
-      <c r="A26" s="42" t="s">
-        <v>87</v>
-      </c>
+      <c r="A26" s="42"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -2979,7 +2980,7 @@
     </row>
     <row r="35" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A35" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>66</v>
@@ -3123,12 +3124,24 @@
       <c r="AW37" s="46"/>
     </row>
     <row r="38" spans="1:90" ht="18.899999999999999" customHeight="1">
-      <c r="A38" s="42"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="A38" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="15">
+        <v>36</v>
+      </c>
+      <c r="D38" s="15">
+        <v>4</v>
+      </c>
+      <c r="E38" s="15">
+        <v>36</v>
+      </c>
+      <c r="F38" s="15">
+        <v>4</v>
+      </c>
       <c r="G38" s="16">
         <v>0</v>
       </c>
@@ -3289,16 +3302,16 @@
         <v>22</v>
       </c>
       <c r="D41" s="15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41" s="15">
         <v>22</v>
       </c>
       <c r="F41" s="15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="29" t="s">
         <v>43</v>
@@ -3312,16 +3325,16 @@
       <c r="B42" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="73" t="s">
+      <c r="C42" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="73" t="s">
+      <c r="D42" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="73" t="s">
+      <c r="E42" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="73" t="s">
+      <c r="F42" s="67" t="s">
         <v>71</v>
       </c>
       <c r="G42" s="16">

--- a/Dokumentation + Diagramme etc/Zeitplan.xlsx
+++ b/Dokumentation + Diagramme etc/Zeitplan.xlsx
@@ -962,23 +962,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1389,7 +1389,7 @@
   <dimension ref="A2:CL50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AU37" sqref="AU37"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999"/>
@@ -1419,23 +1419,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:90" ht="54">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:90" ht="21" customHeight="1">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="20"/>
       <c r="J3" s="8" t="s">
         <v>11</v>
@@ -1490,12 +1490,12 @@
       </c>
     </row>
     <row r="4" spans="1:90" ht="18.75" customHeight="1">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="20"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
@@ -1532,12 +1532,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="BJ6" s="68" t="s">
+      <c r="BJ6" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="BK6" s="68"/>
-      <c r="BL6" s="68"/>
-      <c r="BM6" s="68"/>
+      <c r="BK6" s="72"/>
+      <c r="BL6" s="72"/>
+      <c r="BM6" s="72"/>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
@@ -1590,12 +1590,12 @@
       <c r="AE7" s="49"/>
       <c r="AF7" s="49"/>
       <c r="AG7" s="22"/>
-      <c r="BJ7" s="68" t="s">
+      <c r="BJ7" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="BK7" s="68"/>
-      <c r="BL7" s="68"/>
-      <c r="BM7" s="68"/>
+      <c r="BK7" s="72"/>
+      <c r="BL7" s="72"/>
+      <c r="BM7" s="72"/>
       <c r="BN7" s="40"/>
       <c r="BO7" s="40"/>
       <c r="BP7" s="40"/>
@@ -1613,80 +1613,80 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="71">
+      <c r="J8" s="68">
         <v>43416</v>
       </c>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
-      <c r="R8" s="71">
+      <c r="R8" s="68">
         <v>43417</v>
       </c>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="49"/>
       <c r="W8" s="49"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="49"/>
-      <c r="Z8" s="71">
+      <c r="Z8" s="68">
         <v>43418</v>
       </c>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="71">
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="68">
         <v>43419</v>
       </c>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="71">
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="68">
         <v>43420</v>
       </c>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="69"/>
-      <c r="AY8" s="69"/>
-      <c r="AZ8" s="69"/>
-      <c r="BA8" s="69"/>
-      <c r="BB8" s="69"/>
-      <c r="BC8" s="69"/>
-      <c r="BD8" s="69"/>
-      <c r="BE8" s="69"/>
-      <c r="BF8" s="69"/>
-      <c r="BG8" s="69"/>
-      <c r="BH8" s="69"/>
-      <c r="BI8" s="69"/>
-      <c r="BJ8" s="69"/>
-      <c r="BK8" s="69"/>
-      <c r="BL8" s="69"/>
-      <c r="BM8" s="69"/>
-      <c r="BN8" s="70"/>
-      <c r="BO8" s="70"/>
-      <c r="BP8" s="70"/>
-      <c r="BQ8" s="70"/>
-      <c r="BR8" s="70"/>
-      <c r="BS8" s="70"/>
-      <c r="BT8" s="70"/>
-      <c r="BU8" s="70"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="69"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="70"/>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="70"/>
+      <c r="BB8" s="70"/>
+      <c r="BC8" s="70"/>
+      <c r="BD8" s="70"/>
+      <c r="BE8" s="70"/>
+      <c r="BF8" s="70"/>
+      <c r="BG8" s="70"/>
+      <c r="BH8" s="70"/>
+      <c r="BI8" s="70"/>
+      <c r="BJ8" s="70"/>
+      <c r="BK8" s="70"/>
+      <c r="BL8" s="70"/>
+      <c r="BM8" s="70"/>
+      <c r="BN8" s="73"/>
+      <c r="BO8" s="73"/>
+      <c r="BP8" s="73"/>
+      <c r="BQ8" s="73"/>
+      <c r="BR8" s="73"/>
+      <c r="BS8" s="73"/>
+      <c r="BT8" s="73"/>
+      <c r="BU8" s="73"/>
     </row>
     <row r="9" spans="1:90" ht="15.75" customHeight="1">
       <c r="B9" s="3"/>
@@ -2634,12 +2634,8 @@
       <c r="B28" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="52">
-        <v>21</v>
-      </c>
-      <c r="D28" s="52">
-        <v>3</v>
-      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
       <c r="G28" s="53">
@@ -2746,13 +2742,13 @@
         <v>10</v>
       </c>
       <c r="D30" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="15">
         <v>10</v>
       </c>
       <c r="F30" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="16">
         <v>1</v>
@@ -3368,6 +3364,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="BF8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="BN8:BQ8"/>
+    <mergeCell ref="BR8:BU8"/>
+    <mergeCell ref="BJ7:BM7"/>
     <mergeCell ref="AP8:AW8"/>
     <mergeCell ref="AX8:BA8"/>
     <mergeCell ref="BB8:BE8"/>
@@ -3376,12 +3378,6 @@
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="Z8:AG8"/>
     <mergeCell ref="AH8:AO8"/>
-    <mergeCell ref="BJ6:BM6"/>
-    <mergeCell ref="BF8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="BN8:BQ8"/>
-    <mergeCell ref="BR8:BU8"/>
-    <mergeCell ref="BJ7:BM7"/>
   </mergeCells>
   <conditionalFormatting sqref="J40:CK43 J28:CK38 J11:CK26">
     <cfRule type="expression" dxfId="9" priority="3">

--- a/Dokumentation + Diagramme etc/Zeitplan.xlsx
+++ b/Dokumentation + Diagramme etc/Zeitplan.xlsx
@@ -1388,8 +1388,8 @@
   </sheetPr>
   <dimension ref="A2:CL50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999"/>
@@ -2083,7 +2083,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>43</v>
@@ -2204,7 +2204,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>43</v>
@@ -2639,7 +2639,7 @@
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
       <c r="G28" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="65" t="s">
         <v>40</v>
@@ -2703,7 +2703,7 @@
         <v>9</v>
       </c>
       <c r="F29" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="16">
         <v>1</v>
@@ -2796,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="29"/>
       <c r="I31" s="30"/>
@@ -2947,7 +2947,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="16">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H34" s="29" t="s">
         <v>65</v>

--- a/Dokumentation + Diagramme etc/Zeitplan.xlsx
+++ b/Dokumentation + Diagramme etc/Zeitplan.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>Geplant</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>Projektstruckturplan</t>
-  </si>
-  <si>
-    <t>Seite erstellen</t>
   </si>
   <si>
     <t>Webanwendung erstellen</t>
@@ -962,23 +959,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1388,8 +1385,8 @@
   </sheetPr>
   <dimension ref="A2:CL50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999"/>
@@ -1419,23 +1416,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:90" ht="54">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:90" ht="21" customHeight="1">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="20"/>
       <c r="J3" s="8" t="s">
         <v>11</v>
@@ -1490,12 +1487,12 @@
       </c>
     </row>
     <row r="4" spans="1:90" ht="18.75" customHeight="1">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="20"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
@@ -1532,12 +1529,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="BJ6" s="72" t="s">
+      <c r="BJ6" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="BK6" s="72"/>
-      <c r="BL6" s="72"/>
-      <c r="BM6" s="72"/>
+      <c r="BK6" s="68"/>
+      <c r="BL6" s="68"/>
+      <c r="BM6" s="68"/>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
@@ -1590,12 +1587,12 @@
       <c r="AE7" s="49"/>
       <c r="AF7" s="49"/>
       <c r="AG7" s="22"/>
-      <c r="BJ7" s="72" t="s">
+      <c r="BJ7" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="BK7" s="72"/>
-      <c r="BL7" s="72"/>
-      <c r="BM7" s="72"/>
+      <c r="BK7" s="68"/>
+      <c r="BL7" s="68"/>
+      <c r="BM7" s="68"/>
       <c r="BN7" s="40"/>
       <c r="BO7" s="40"/>
       <c r="BP7" s="40"/>
@@ -1613,80 +1610,80 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="68">
+      <c r="J8" s="71">
         <v>43416</v>
       </c>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
-      <c r="R8" s="68">
+      <c r="R8" s="71">
         <v>43417</v>
       </c>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="49"/>
       <c r="W8" s="49"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="49"/>
-      <c r="Z8" s="68">
+      <c r="Z8" s="71">
         <v>43418</v>
       </c>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="68">
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="71">
         <v>43419</v>
       </c>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="69"/>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="69"/>
-      <c r="AM8" s="69"/>
-      <c r="AN8" s="69"/>
-      <c r="AO8" s="69"/>
-      <c r="AP8" s="68">
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="71">
         <v>43420</v>
       </c>
-      <c r="AQ8" s="69"/>
-      <c r="AR8" s="69"/>
-      <c r="AS8" s="69"/>
-      <c r="AT8" s="69"/>
-      <c r="AU8" s="69"/>
-      <c r="AV8" s="69"/>
-      <c r="AW8" s="69"/>
-      <c r="AX8" s="70"/>
-      <c r="AY8" s="70"/>
-      <c r="AZ8" s="70"/>
-      <c r="BA8" s="70"/>
-      <c r="BB8" s="70"/>
-      <c r="BC8" s="70"/>
-      <c r="BD8" s="70"/>
-      <c r="BE8" s="70"/>
-      <c r="BF8" s="70"/>
-      <c r="BG8" s="70"/>
-      <c r="BH8" s="70"/>
-      <c r="BI8" s="70"/>
-      <c r="BJ8" s="70"/>
-      <c r="BK8" s="70"/>
-      <c r="BL8" s="70"/>
-      <c r="BM8" s="70"/>
-      <c r="BN8" s="73"/>
-      <c r="BO8" s="73"/>
-      <c r="BP8" s="73"/>
-      <c r="BQ8" s="73"/>
-      <c r="BR8" s="73"/>
-      <c r="BS8" s="73"/>
-      <c r="BT8" s="73"/>
-      <c r="BU8" s="73"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="72"/>
+      <c r="AU8" s="72"/>
+      <c r="AV8" s="72"/>
+      <c r="AW8" s="72"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="69"/>
+      <c r="BC8" s="69"/>
+      <c r="BD8" s="69"/>
+      <c r="BE8" s="69"/>
+      <c r="BF8" s="69"/>
+      <c r="BG8" s="69"/>
+      <c r="BH8" s="69"/>
+      <c r="BI8" s="69"/>
+      <c r="BJ8" s="69"/>
+      <c r="BK8" s="69"/>
+      <c r="BL8" s="69"/>
+      <c r="BM8" s="69"/>
+      <c r="BN8" s="70"/>
+      <c r="BO8" s="70"/>
+      <c r="BP8" s="70"/>
+      <c r="BQ8" s="70"/>
+      <c r="BR8" s="70"/>
+      <c r="BS8" s="70"/>
+      <c r="BT8" s="70"/>
+      <c r="BU8" s="70"/>
     </row>
     <row r="9" spans="1:90" ht="15.75" customHeight="1">
       <c r="B9" s="3"/>
@@ -1957,7 +1954,7 @@
     </row>
     <row r="11" spans="1:90" ht="18.75" customHeight="1">
       <c r="A11" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>13</v>
@@ -1984,7 +1981,7 @@
     </row>
     <row r="12" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A12" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>14</v>
@@ -2011,7 +2008,7 @@
     </row>
     <row r="13" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A13" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>42</v>
@@ -2038,7 +2035,7 @@
     </row>
     <row r="14" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A14" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>48</v>
@@ -2065,7 +2062,7 @@
     </row>
     <row r="15" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="63" t="s">
         <v>47</v>
@@ -2092,7 +2089,7 @@
     </row>
     <row r="16" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A16" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>59</v>
@@ -2139,7 +2136,7 @@
     </row>
     <row r="17" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A17" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>55</v>
@@ -2186,7 +2183,7 @@
     </row>
     <row r="18" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>46</v>
@@ -2213,10 +2210,10 @@
     </row>
     <row r="19" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="15">
         <v>9</v>
@@ -2240,7 +2237,7 @@
     </row>
     <row r="20" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>45</v>
@@ -2267,7 +2264,7 @@
     </row>
     <row r="21" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>58</v>
@@ -2314,7 +2311,7 @@
     </row>
     <row r="22" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A22" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>54</v>
@@ -2361,7 +2358,7 @@
     </row>
     <row r="23" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A23" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>60</v>
@@ -2408,7 +2405,7 @@
     </row>
     <row r="24" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A24" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>61</v>
@@ -2455,7 +2452,7 @@
     </row>
     <row r="25" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A25" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>62</v>
@@ -2691,7 +2688,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="15">
         <v>9</v>
@@ -2932,7 +2929,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="15">
         <v>20</v>
@@ -2950,7 +2947,7 @@
         <v>0.5</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I34" s="30"/>
       <c r="J34" s="47"/>
@@ -2976,10 +2973,10 @@
     </row>
     <row r="35" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A35" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="15">
         <v>35</v>
@@ -3079,7 +3076,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="15">
         <v>38</v>
@@ -3121,10 +3118,10 @@
     </row>
     <row r="38" spans="1:90" ht="18.899999999999999" customHeight="1">
       <c r="A38" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="C38" s="15">
         <v>36</v>
@@ -3319,19 +3316,19 @@
         <v>34</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E42" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F42" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G42" s="16">
         <v>0</v>
@@ -3353,23 +3350,13 @@
       <c r="I43" s="34"/>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="48" t="s">
-        <v>63</v>
-      </c>
+      <c r="C49" s="48"/>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="48" t="s">
-        <v>24</v>
-      </c>
+      <c r="C50" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="BJ6:BM6"/>
-    <mergeCell ref="BF8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="BN8:BQ8"/>
-    <mergeCell ref="BR8:BU8"/>
-    <mergeCell ref="BJ7:BM7"/>
     <mergeCell ref="AP8:AW8"/>
     <mergeCell ref="AX8:BA8"/>
     <mergeCell ref="BB8:BE8"/>
@@ -3378,6 +3365,12 @@
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="Z8:AG8"/>
     <mergeCell ref="AH8:AO8"/>
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="BF8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="BN8:BQ8"/>
+    <mergeCell ref="BR8:BU8"/>
+    <mergeCell ref="BJ7:BM7"/>
   </mergeCells>
   <conditionalFormatting sqref="J40:CK43 J28:CK38 J11:CK26">
     <cfRule type="expression" dxfId="9" priority="3">
